--- a/Benchmark/dynamic-result.xlsx
+++ b/Benchmark/dynamic-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cabdf30199810cd7/home/DynaJson/gitrepo/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="807" documentId="8_{9686923D-9FB1-46FC-B3CE-1EAAC94F533E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AFD51334-9F16-447F-986D-444677A44523}"/>
+  <xr:revisionPtr revIDLastSave="869" documentId="8_{9686923D-9FB1-46FC-B3CE-1EAAC94F533E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49F27E1C-361C-4598-ABA4-4485374C3F62}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2400" yWindow="1560" windowWidth="15030" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark.BenchmarkDotNet.Dynam" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,18 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="68" r:id="rId9"/>
-    <pivotCache cacheId="76" r:id="rId10"/>
-    <pivotCache cacheId="79" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2337,7 +2340,7 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2397,7 +2400,7 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2457,7 +2460,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2517,7 +2520,7 @@
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2674,6 +2677,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1206-4EAB-A136-2F4B8F249007}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-1206-4EAB-A136-2F4B8F249007}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -2851,6 +2874,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1206-4EAB-A136-2F4B8F249007}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="4"/>
@@ -3007,6 +3040,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1206-4EAB-A136-2F4B8F249007}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3298,6 +3341,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1206-4EAB-A136-2F4B8F249007}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1206-4EAB-A136-2F4B8F249007}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -4184,7 +4247,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4244,7 +4307,7 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4466,6 +4529,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-09C3-462A-A98F-644BE33DB619}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-09C3-462A-A98F-644BE33DB619}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -5785,6 +5868,9 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
@@ -8611,7 +8697,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14CBB3D1-92F4-4DC6-97D8-54F1ECEEA169}" name="ピボットテーブル1" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14CBB3D1-92F4-4DC6-97D8-54F1ECEEA169}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8860,7 +8946,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61C71FD-DD2C-4C9D-8A07-729F5EADB217}" name="ピボットテーブル1" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E61C71FD-DD2C-4C9D-8A07-729F5EADB217}" name="ピボットテーブル1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -9048,7 +9134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19C3E097-3CBF-4A33-A5DC-3FEBD6F408AD}" name="ピボットテーブル3" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19C3E097-3CBF-4A33-A5DC-3FEBD6F408AD}" name="ピボットテーブル3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -9516,8 +9602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AZ61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19172,7 +19258,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D61"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21927,7 +22013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAE602A-4F40-4829-B9AD-28C5D9418B07}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/Benchmark/dynamic-result.xlsx
+++ b/Benchmark/dynamic-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cabdf30199810cd7/home/DynaJson/gitrepo/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1549" documentId="8_{9686923D-9FB1-46FC-B3CE-1EAAC94F533E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D35C1A06-08E8-4633-890F-DCF9F469DD47}"/>
+  <xr:revisionPtr revIDLastSave="1684" documentId="8_{9686923D-9FB1-46FC-B3CE-1EAAC94F533E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99CFDA71-0229-4103-AC63-385485B83260}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="1470" windowWidth="15780" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark.BenchmarkDotNet.Dynam" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
+    <pivotCache cacheId="18" r:id="rId9"/>
+    <pivotCache cacheId="22" r:id="rId10"/>
+    <pivotCache cacheId="26" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="375">
   <si>
     <t>Method</t>
   </si>
@@ -280,12 +280,6 @@
     <t>列ラベル</t>
   </si>
   <si>
-    <t>15.26 us</t>
-  </si>
-  <si>
-    <t>4.76 us</t>
-  </si>
-  <si>
     <t>1825.27 KB</t>
   </si>
   <si>
@@ -298,886 +292,886 @@
     <t>.NET Core 3.1</t>
   </si>
   <si>
-    <t>9,346.1 us</t>
-  </si>
-  <si>
-    <t>43.69 us</t>
-  </si>
-  <si>
-    <t>225.74 us</t>
-  </si>
-  <si>
-    <t>9,294.1 us</t>
-  </si>
-  <si>
-    <t>5668.09 KB</t>
-  </si>
-  <si>
-    <t>3,534.8 us</t>
-  </si>
-  <si>
-    <t>10.60 us</t>
-  </si>
-  <si>
-    <t>54.10 us</t>
-  </si>
-  <si>
-    <t>3,531.0 us</t>
-  </si>
-  <si>
-    <t>2655.68 KB</t>
-  </si>
-  <si>
-    <t>1,824.8 us</t>
-  </si>
-  <si>
-    <t>7.08 us</t>
-  </si>
-  <si>
-    <t>36.32 us</t>
-  </si>
-  <si>
-    <t>1,820.8 us</t>
-  </si>
-  <si>
-    <t>1657.05 KB</t>
-  </si>
-  <si>
-    <t>2,236.9 us</t>
-  </si>
-  <si>
-    <t>4.87 us</t>
-  </si>
-  <si>
-    <t>24.90 us</t>
-  </si>
-  <si>
-    <t>2,232.4 us</t>
-  </si>
-  <si>
-    <t>967.5 KB</t>
-  </si>
-  <si>
-    <t>1,058.8 us</t>
-  </si>
-  <si>
-    <t>3.02 us</t>
-  </si>
-  <si>
-    <t>1,057.7 us</t>
-  </si>
-  <si>
-    <t>1178.58 KB</t>
-  </si>
-  <si>
-    <t>1,821.6 us</t>
-  </si>
-  <si>
     <t>3.94 us</t>
-  </si>
-  <si>
-    <t>20.08 us</t>
-  </si>
-  <si>
-    <t>1,817.2 us</t>
-  </si>
-  <si>
-    <t>1121.4 KB</t>
-  </si>
-  <si>
-    <t>954.4 us</t>
-  </si>
-  <si>
-    <t>2.84 us</t>
-  </si>
-  <si>
-    <t>14.53 us</t>
-  </si>
-  <si>
-    <t>955.1 us</t>
-  </si>
-  <si>
-    <t>639.41 KB</t>
-  </si>
-  <si>
-    <t>669.1 us</t>
-  </si>
-  <si>
-    <t>1.44 us</t>
-  </si>
-  <si>
-    <t>7.46 us</t>
-  </si>
-  <si>
-    <t>667.8 us</t>
-  </si>
-  <si>
-    <t>663.38 KB</t>
-  </si>
-  <si>
-    <t>1,627.1 us</t>
-  </si>
-  <si>
-    <t>24.30 us</t>
-  </si>
-  <si>
-    <t>1,624.7 us</t>
-  </si>
-  <si>
-    <t>1433.98 KB</t>
-  </si>
-  <si>
-    <t>1,342.2 us</t>
-  </si>
-  <si>
-    <t>2.49 us</t>
-  </si>
-  <si>
-    <t>12.75 us</t>
-  </si>
-  <si>
-    <t>1,340.0 us</t>
-  </si>
-  <si>
-    <t>852.26 KB</t>
-  </si>
-  <si>
-    <t>1,233.1 us</t>
   </si>
   <si>
     <t>4.06 us</t>
   </si>
   <si>
-    <t>21.13 us</t>
-  </si>
-  <si>
-    <t>1,230.0 us</t>
-  </si>
-  <si>
-    <t>810.23 KB</t>
-  </si>
-  <si>
-    <t>668.2 us</t>
-  </si>
-  <si>
-    <t>1.59 us</t>
-  </si>
-  <si>
-    <t>8.18 us</t>
-  </si>
-  <si>
-    <t>667.1 us</t>
-  </si>
-  <si>
-    <t>576.09 KB</t>
-  </si>
-  <si>
-    <t>35,367.1 us</t>
-  </si>
-  <si>
-    <t>104.70 us</t>
-  </si>
-  <si>
-    <t>541.97 us</t>
-  </si>
-  <si>
-    <t>35,345.0 us</t>
-  </si>
-  <si>
     <t>13528.6 KB</t>
-  </si>
-  <si>
-    <t>12,112.1 us</t>
-  </si>
-  <si>
-    <t>21.77 us</t>
-  </si>
-  <si>
-    <t>111.72 us</t>
-  </si>
-  <si>
-    <t>12,103.8 us</t>
-  </si>
-  <si>
-    <t>4022.54 KB</t>
-  </si>
-  <si>
-    <t>9,288.6 us</t>
-  </si>
-  <si>
-    <t>22.55 us</t>
-  </si>
-  <si>
-    <t>115.53 us</t>
-  </si>
-  <si>
-    <t>9,281.5 us</t>
   </si>
   <si>
     <t>3115.67 KB</t>
   </si>
   <si>
-    <t>5,184.7 us</t>
-  </si>
-  <si>
-    <t>10.79 us</t>
-  </si>
-  <si>
-    <t>56.03 us</t>
-  </si>
-  <si>
-    <t>5,176.7 us</t>
-  </si>
-  <si>
     <t>1761.38 KB</t>
-  </si>
-  <si>
-    <t>10,755.5 us</t>
-  </si>
-  <si>
-    <t>50.98 us</t>
-  </si>
-  <si>
-    <t>262.51 us</t>
-  </si>
-  <si>
-    <t>10,685.1 us</t>
   </si>
   <si>
     <t>3656.94 KB</t>
   </si>
   <si>
-    <t>5,947.3 us</t>
-  </si>
-  <si>
-    <t>12.83 us</t>
-  </si>
-  <si>
-    <t>66.63 us</t>
-  </si>
-  <si>
-    <t>5,944.9 us</t>
-  </si>
-  <si>
     <t>1734.8 KB</t>
-  </si>
-  <si>
-    <t>3,042.3 us</t>
-  </si>
-  <si>
-    <t>11.54 us</t>
-  </si>
-  <si>
-    <t>59.50 us</t>
-  </si>
-  <si>
-    <t>3,032.2 us</t>
   </si>
   <si>
     <t>1548.52 KB</t>
   </si>
   <si>
-    <t>2,106.2 us</t>
-  </si>
-  <si>
-    <t>3.57 us</t>
-  </si>
-  <si>
     <t>18.43 us</t>
-  </si>
-  <si>
-    <t>2,106.8 us</t>
   </si>
   <si>
     <t>1663.73 KB</t>
   </si>
   <si>
-    <t>8,459.3 us</t>
-  </si>
-  <si>
-    <t>33.11 us</t>
-  </si>
-  <si>
-    <t>172.27 us</t>
-  </si>
-  <si>
-    <t>8,469.8 us</t>
-  </si>
-  <si>
     <t>2676.67 KB</t>
-  </si>
-  <si>
-    <t>4,901.5 us</t>
-  </si>
-  <si>
-    <t>8.19 us</t>
-  </si>
-  <si>
-    <t>42.23 us</t>
-  </si>
-  <si>
-    <t>4,900.9 us</t>
-  </si>
-  <si>
-    <t>6,179.8 us</t>
-  </si>
-  <si>
-    <t>19.13 us</t>
-  </si>
-  <si>
-    <t>97.99 us</t>
-  </si>
-  <si>
-    <t>6,183.9 us</t>
   </si>
   <si>
     <t>3668.46 KB</t>
   </si>
   <si>
-    <t>2,699.1 us</t>
-  </si>
-  <si>
-    <t>5.07 us</t>
-  </si>
-  <si>
-    <t>26.31 us</t>
-  </si>
-  <si>
-    <t>2,696.1 us</t>
-  </si>
-  <si>
     <t>1566.02 KB</t>
-  </si>
-  <si>
-    <t>24,261.2 us</t>
-  </si>
-  <si>
-    <t>49.12 us</t>
-  </si>
-  <si>
-    <t>247.61 us</t>
-  </si>
-  <si>
-    <t>24,242.1 us</t>
   </si>
   <si>
     <t>13923.24 KB</t>
   </si>
   <si>
-    <t>13,704.4 us</t>
-  </si>
-  <si>
-    <t>30.81 us</t>
-  </si>
-  <si>
-    <t>157.27 us</t>
-  </si>
-  <si>
-    <t>13,705.5 us</t>
-  </si>
-  <si>
-    <t>5626.5 KB</t>
-  </si>
-  <si>
-    <t>4,923.2 us</t>
-  </si>
-  <si>
-    <t>18.64 us</t>
-  </si>
-  <si>
-    <t>94.80 us</t>
-  </si>
-  <si>
-    <t>4,911.3 us</t>
-  </si>
-  <si>
     <t>5889.09 KB</t>
-  </si>
-  <si>
-    <t>10,696.2 us</t>
-  </si>
-  <si>
-    <t>23.26 us</t>
-  </si>
-  <si>
-    <t>120.38 us</t>
-  </si>
-  <si>
-    <t>10,677.2 us</t>
   </si>
   <si>
     <t>2551.38 KB</t>
   </si>
   <si>
-    <t>3,265.7 us</t>
-  </si>
-  <si>
-    <t>11.70 us</t>
-  </si>
-  <si>
-    <t>60.13 us</t>
-  </si>
-  <si>
-    <t>3,256.7 us</t>
-  </si>
-  <si>
     <t>3242.61 KB</t>
-  </si>
-  <si>
-    <t>10,176.8 us</t>
-  </si>
-  <si>
-    <t>20.34 us</t>
-  </si>
-  <si>
-    <t>105.45 us</t>
-  </si>
-  <si>
-    <t>10,174.7 us</t>
   </si>
   <si>
     <t>2768.53 KB</t>
   </si>
   <si>
-    <t>1,628.7 us</t>
-  </si>
-  <si>
-    <t>6.20 us</t>
-  </si>
-  <si>
-    <t>31.83 us</t>
-  </si>
-  <si>
-    <t>1,623.7 us</t>
-  </si>
-  <si>
     <t>1551.55 KB</t>
-  </si>
-  <si>
-    <t>2,819.8 us</t>
-  </si>
-  <si>
-    <t>6.57 us</t>
-  </si>
-  <si>
-    <t>33.97 us</t>
-  </si>
-  <si>
-    <t>2,816.8 us</t>
   </si>
   <si>
     <t>870.2 KB</t>
   </si>
   <si>
-    <t>3,737.1 us</t>
-  </si>
-  <si>
-    <t>12.90 us</t>
-  </si>
-  <si>
-    <t>65.86 us</t>
-  </si>
-  <si>
-    <t>3,733.3 us</t>
-  </si>
-  <si>
     <t>4559.71 KB</t>
-  </si>
-  <si>
-    <t>6,244.7 us</t>
-  </si>
-  <si>
-    <t>18.48 us</t>
-  </si>
-  <si>
-    <t>96.33 us</t>
-  </si>
-  <si>
-    <t>6,263.0 us</t>
   </si>
   <si>
     <t>2327.73 KB</t>
   </si>
   <si>
-    <t>2,324.3 us</t>
-  </si>
-  <si>
-    <t>12.36 us</t>
-  </si>
-  <si>
-    <t>64.29 us</t>
-  </si>
-  <si>
-    <t>2,321.4 us</t>
-  </si>
-  <si>
     <t>2381.7 KB</t>
-  </si>
-  <si>
-    <t>2,985.2 us</t>
-  </si>
-  <si>
-    <t>8.03 us</t>
-  </si>
-  <si>
-    <t>41.77 us</t>
-  </si>
-  <si>
-    <t>2,979.6 us</t>
   </si>
   <si>
     <t>919.22 KB</t>
   </si>
   <si>
-    <t>30,461.9 us</t>
-  </si>
-  <si>
-    <t>73.55 us</t>
-  </si>
-  <si>
-    <t>382.67 us</t>
-  </si>
-  <si>
-    <t>30,389.0 us</t>
-  </si>
-  <si>
     <t>13897.8 KB</t>
-  </si>
-  <si>
-    <t>5,294.0 us</t>
-  </si>
-  <si>
-    <t>16.40 us</t>
-  </si>
-  <si>
-    <t>83.84 us</t>
-  </si>
-  <si>
-    <t>5,301.7 us</t>
-  </si>
-  <si>
-    <t>1967.67 KB</t>
-  </si>
-  <si>
-    <t>12,281.7 us</t>
-  </si>
-  <si>
-    <t>47.50 us</t>
-  </si>
-  <si>
-    <t>246.28 us</t>
-  </si>
-  <si>
-    <t>12,258.3 us</t>
   </si>
   <si>
     <t>5713.74 KB</t>
   </si>
   <si>
-    <t>5,025.4 us</t>
-  </si>
-  <si>
-    <t>9.87 us</t>
-  </si>
-  <si>
-    <t>51.38 us</t>
-  </si>
-  <si>
-    <t>5,024.2 us</t>
-  </si>
-  <si>
-    <t>1236.19 KB</t>
-  </si>
-  <si>
-    <t>8,200.4 us</t>
-  </si>
-  <si>
-    <t>19.63 us</t>
-  </si>
-  <si>
-    <t>101.78 us</t>
-  </si>
-  <si>
-    <t>8,206.2 us</t>
-  </si>
-  <si>
     <t>3780.76 KB</t>
-  </si>
-  <si>
-    <t>4,852.6 us</t>
-  </si>
-  <si>
-    <t>11.84 us</t>
-  </si>
-  <si>
-    <t>61.60 us</t>
-  </si>
-  <si>
-    <t>4,851.8 us</t>
   </si>
   <si>
     <t>1247.35 KB</t>
   </si>
   <si>
-    <t>2,322.9 us</t>
-  </si>
-  <si>
-    <t>4.33 us</t>
-  </si>
-  <si>
-    <t>22.47 us</t>
-  </si>
-  <si>
-    <t>2,323.9 us</t>
-  </si>
-  <si>
     <t>1415.59 KB</t>
-  </si>
-  <si>
-    <t>871.0 us</t>
-  </si>
-  <si>
-    <t>2.77 us</t>
-  </si>
-  <si>
-    <t>14.35 us</t>
-  </si>
-  <si>
-    <t>872.1 us</t>
   </si>
   <si>
     <t>615.75 KB</t>
   </si>
   <si>
-    <t>8,321.1 us</t>
-  </si>
-  <si>
-    <t>24.45 us</t>
-  </si>
-  <si>
-    <t>126.76 us</t>
-  </si>
-  <si>
-    <t>8,339.7 us</t>
-  </si>
-  <si>
     <t>4369.55 KB</t>
-  </si>
-  <si>
-    <t>1,999.1 us</t>
-  </si>
-  <si>
-    <t>6.24 us</t>
-  </si>
-  <si>
-    <t>32.37 us</t>
-  </si>
-  <si>
-    <t>1,999.2 us</t>
-  </si>
-  <si>
-    <t>805.37 KB</t>
-  </si>
-  <si>
-    <t>3,725.9 us</t>
-  </si>
-  <si>
-    <t>11.39 us</t>
-  </si>
-  <si>
-    <t>59.37 us</t>
-  </si>
-  <si>
-    <t>3,737.2 us</t>
   </si>
   <si>
     <t>2174.82 KB</t>
   </si>
   <si>
-    <t>1,102.1 us</t>
-  </si>
-  <si>
-    <t>3.95 us</t>
-  </si>
-  <si>
-    <t>20.52 us</t>
-  </si>
-  <si>
-    <t>1,100.4 us</t>
-  </si>
-  <si>
     <t>531.3 KB</t>
-  </si>
-  <si>
-    <t>14,577.4 us</t>
-  </si>
-  <si>
-    <t>43.80 us</t>
-  </si>
-  <si>
-    <t>228.27 us</t>
-  </si>
-  <si>
-    <t>14,567.3 us</t>
-  </si>
-  <si>
-    <t>6769.15 KB</t>
-  </si>
-  <si>
-    <t>8,132.3 us</t>
-  </si>
-  <si>
-    <t>28.82 us</t>
-  </si>
-  <si>
-    <t>148.40 us</t>
-  </si>
-  <si>
-    <t>8,126.5 us</t>
   </si>
   <si>
     <t>1872.89 KB</t>
   </si>
   <si>
-    <t>5,082.1 us</t>
-  </si>
-  <si>
-    <t>13.91 us</t>
-  </si>
-  <si>
-    <t>72.23 us</t>
-  </si>
-  <si>
-    <t>5,074.9 us</t>
-  </si>
-  <si>
     <t>1821.85 KB</t>
-  </si>
-  <si>
-    <t>4,388.8 us</t>
-  </si>
-  <si>
-    <t>11.55 us</t>
-  </si>
-  <si>
-    <t>59.67 us</t>
-  </si>
-  <si>
-    <t>4,386.7 us</t>
   </si>
   <si>
     <t>742.51 KB</t>
   </si>
   <si>
-    <t>3,921.1 us</t>
-  </si>
-  <si>
-    <t>8.62 us</t>
-  </si>
-  <si>
-    <t>44.84 us</t>
-  </si>
-  <si>
-    <t>3,919.3 us</t>
-  </si>
-  <si>
     <t>1312.29 KB</t>
-  </si>
-  <si>
-    <t>4,120.5 us</t>
-  </si>
-  <si>
-    <t>28.15 us</t>
-  </si>
-  <si>
-    <t>145.70 us</t>
-  </si>
-  <si>
-    <t>4,051.2 us</t>
   </si>
   <si>
     <t>738.6 KB</t>
   </si>
   <si>
-    <t>1,447.7 us</t>
-  </si>
-  <si>
-    <t>8.15 us</t>
-  </si>
-  <si>
-    <t>42.03 us</t>
-  </si>
-  <si>
-    <t>1,437.6 us</t>
-  </si>
-  <si>
     <t>793.08 KB</t>
-  </si>
-  <si>
-    <t>843.4 us</t>
-  </si>
-  <si>
-    <t>1.53 us</t>
-  </si>
-  <si>
-    <t>7.94 us</t>
-  </si>
-  <si>
-    <t>843.6 us</t>
-  </si>
-  <si>
-    <t>3,847.1 us</t>
-  </si>
-  <si>
-    <t>8.82 us</t>
-  </si>
-  <si>
-    <t>45.60 us</t>
-  </si>
-  <si>
-    <t>3,844.6 us</t>
   </si>
   <si>
     <t>1663.99 KB</t>
   </si>
   <si>
-    <t>2,909.4 us</t>
-  </si>
-  <si>
-    <t>8.84 us</t>
-  </si>
-  <si>
-    <t>45.81 us</t>
-  </si>
-  <si>
-    <t>2,898.9 us</t>
-  </si>
-  <si>
-    <t>1,983.4 us</t>
-  </si>
-  <si>
-    <t>5.67 us</t>
-  </si>
-  <si>
-    <t>28.95 us</t>
-  </si>
-  <si>
-    <t>1,981.1 us</t>
-  </si>
-  <si>
     <t>1056.8 KB</t>
   </si>
   <si>
-    <t>1,213.2 us</t>
+    <t>9,163.1 us</t>
   </si>
   <si>
-    <t>2.23 us</t>
+    <t>12.21 us</t>
   </si>
   <si>
-    <t>11.51 us</t>
+    <t>62.68 us</t>
   </si>
   <si>
-    <t>1,213.1 us</t>
+    <t>9,159.2 us</t>
+  </si>
+  <si>
+    <t>5660.16 KB</t>
+  </si>
+  <si>
+    <t>4,018.1 us</t>
+  </si>
+  <si>
+    <t>9.39 us</t>
+  </si>
+  <si>
+    <t>48.08 us</t>
+  </si>
+  <si>
+    <t>4,016.0 us</t>
+  </si>
+  <si>
+    <t>2648.01 KB</t>
+  </si>
+  <si>
+    <t>1,786.2 us</t>
+  </si>
+  <si>
+    <t>3.75 us</t>
+  </si>
+  <si>
+    <t>19.25 us</t>
+  </si>
+  <si>
+    <t>1,783.9 us</t>
+  </si>
+  <si>
+    <t>1649.13 KB</t>
+  </si>
+  <si>
+    <t>2,452.6 us</t>
+  </si>
+  <si>
+    <t>2.64 us</t>
+  </si>
+  <si>
+    <t>13.42 us</t>
+  </si>
+  <si>
+    <t>2,452.9 us</t>
+  </si>
+  <si>
+    <t>959.02 KB</t>
+  </si>
+  <si>
+    <t>1,105.2 us</t>
+  </si>
+  <si>
+    <t>4.44 us</t>
+  </si>
+  <si>
+    <t>22.77 us</t>
+  </si>
+  <si>
+    <t>1,101.7 us</t>
+  </si>
+  <si>
+    <t>1170.66 KB</t>
+  </si>
+  <si>
+    <t>2,048.4 us</t>
+  </si>
+  <si>
+    <t>3.52 us</t>
+  </si>
+  <si>
+    <t>18.13 us</t>
+  </si>
+  <si>
+    <t>2,048.9 us</t>
+  </si>
+  <si>
+    <t>1113.41 KB</t>
+  </si>
+  <si>
+    <t>1,026.8 us</t>
+  </si>
+  <si>
+    <t>3.18 us</t>
+  </si>
+  <si>
+    <t>16.39 us</t>
+  </si>
+  <si>
+    <t>1,031.0 us</t>
+  </si>
+  <si>
+    <t>631.48 KB</t>
+  </si>
+  <si>
+    <t>740.6 us</t>
+  </si>
+  <si>
+    <t>0.77 us</t>
+  </si>
+  <si>
+    <t>3.91 us</t>
+  </si>
+  <si>
+    <t>741.1 us</t>
+  </si>
+  <si>
+    <t>655.73 KB</t>
+  </si>
+  <si>
+    <t>1,613.2 us</t>
+  </si>
+  <si>
+    <t>3.48 us</t>
+  </si>
+  <si>
+    <t>17.93 us</t>
+  </si>
+  <si>
+    <t>1,610.9 us</t>
+  </si>
+  <si>
+    <t>1426.05 KB</t>
+  </si>
+  <si>
+    <t>1,478.3 us</t>
+  </si>
+  <si>
+    <t>2.05 us</t>
+  </si>
+  <si>
+    <t>10.45 us</t>
+  </si>
+  <si>
+    <t>1,479.1 us</t>
+  </si>
+  <si>
+    <t>844.27 KB</t>
+  </si>
+  <si>
+    <t>1,237.5 us</t>
+  </si>
+  <si>
+    <t>2.15 us</t>
+  </si>
+  <si>
+    <t>11.06 us</t>
+  </si>
+  <si>
+    <t>1,237.4 us</t>
+  </si>
+  <si>
+    <t>802.31 KB</t>
+  </si>
+  <si>
+    <t>733.7 us</t>
+  </si>
+  <si>
+    <t>0.61 us</t>
+  </si>
+  <si>
+    <t>3.08 us</t>
+  </si>
+  <si>
+    <t>733.4 us</t>
+  </si>
+  <si>
+    <t>568.44 KB</t>
+  </si>
+  <si>
+    <t>37,111.2 us</t>
+  </si>
+  <si>
+    <t>75.64 us</t>
+  </si>
+  <si>
+    <t>391.50 us</t>
+  </si>
+  <si>
+    <t>37,090.2 us</t>
+  </si>
+  <si>
+    <t>13,255.3 us</t>
+  </si>
+  <si>
+    <t>18.99 us</t>
+  </si>
+  <si>
+    <t>97.08 us</t>
+  </si>
+  <si>
+    <t>13,264.6 us</t>
+  </si>
+  <si>
+    <t>4022.4 KB</t>
+  </si>
+  <si>
+    <t>9,618.1 us</t>
+  </si>
+  <si>
+    <t>19.21 us</t>
+  </si>
+  <si>
+    <t>98.59 us</t>
+  </si>
+  <si>
+    <t>9,618.2 us</t>
+  </si>
+  <si>
+    <t>5,455.8 us</t>
+  </si>
+  <si>
+    <t>5.97 us</t>
+  </si>
+  <si>
+    <t>30.52 us</t>
+  </si>
+  <si>
+    <t>5,455.4 us</t>
+  </si>
+  <si>
+    <t>11,052.8 us</t>
+  </si>
+  <si>
+    <t>35.17 us</t>
+  </si>
+  <si>
+    <t>181.40 us</t>
+  </si>
+  <si>
+    <t>10,983.6 us</t>
+  </si>
+  <si>
+    <t>6,433.2 us</t>
+  </si>
+  <si>
+    <t>33.57 us</t>
+  </si>
+  <si>
+    <t>172.26 us</t>
+  </si>
+  <si>
+    <t>6,517.9 us</t>
+  </si>
+  <si>
+    <t>3,138.4 us</t>
+  </si>
+  <si>
+    <t>20.55 us</t>
+  </si>
+  <si>
+    <t>3,139.5 us</t>
+  </si>
+  <si>
+    <t>2,207.8 us</t>
+  </si>
+  <si>
+    <t>2.43 us</t>
+  </si>
+  <si>
+    <t>12.29 us</t>
+  </si>
+  <si>
+    <t>2,209.3 us</t>
+  </si>
+  <si>
+    <t>8,837.1 us</t>
+  </si>
+  <si>
+    <t>57.16 us</t>
+  </si>
+  <si>
+    <t>293.80 us</t>
+  </si>
+  <si>
+    <t>8,662.8 us</t>
+  </si>
+  <si>
+    <t>5,091.7 us</t>
+  </si>
+  <si>
+    <t>4.18 us</t>
+  </si>
+  <si>
+    <t>21.16 us</t>
+  </si>
+  <si>
+    <t>5,089.6 us</t>
+  </si>
+  <si>
+    <t>6,447.4 us</t>
+  </si>
+  <si>
+    <t>29.35 us</t>
+  </si>
+  <si>
+    <t>149.81 us</t>
+  </si>
+  <si>
+    <t>6,416.9 us</t>
+  </si>
+  <si>
+    <t>2,833.4 us</t>
+  </si>
+  <si>
+    <t>3.00 us</t>
+  </si>
+  <si>
+    <t>15.27 us</t>
+  </si>
+  <si>
+    <t>2,829.9 us</t>
+  </si>
+  <si>
+    <t>25,434.2 us</t>
+  </si>
+  <si>
+    <t>42.67 us</t>
+  </si>
+  <si>
+    <t>218.57 us</t>
+  </si>
+  <si>
+    <t>25,417.1 us</t>
+  </si>
+  <si>
+    <t>14,136.3 us</t>
+  </si>
+  <si>
+    <t>24.97 us</t>
+  </si>
+  <si>
+    <t>128.35 us</t>
+  </si>
+  <si>
+    <t>14,124.9 us</t>
+  </si>
+  <si>
+    <t>5626.57 KB</t>
+  </si>
+  <si>
+    <t>5,290.1 us</t>
+  </si>
+  <si>
+    <t>22.75 us</t>
+  </si>
+  <si>
+    <t>118.34 us</t>
+  </si>
+  <si>
+    <t>5,321.5 us</t>
+  </si>
+  <si>
+    <t>11,411.6 us</t>
+  </si>
+  <si>
+    <t>75.34 us</t>
+  </si>
+  <si>
+    <t>386.57 us</t>
+  </si>
+  <si>
+    <t>11,327.2 us</t>
+  </si>
+  <si>
+    <t>3,382.3 us</t>
+  </si>
+  <si>
+    <t>7.76 us</t>
+  </si>
+  <si>
+    <t>40.02 us</t>
+  </si>
+  <si>
+    <t>3,381.5 us</t>
+  </si>
+  <si>
+    <t>10,724.1 us</t>
+  </si>
+  <si>
+    <t>24.52 us</t>
+  </si>
+  <si>
+    <t>126.05 us</t>
+  </si>
+  <si>
+    <t>10,721.3 us</t>
+  </si>
+  <si>
+    <t>1,679.4 us</t>
+  </si>
+  <si>
+    <t>30.96 us</t>
+  </si>
+  <si>
+    <t>1,678.0 us</t>
+  </si>
+  <si>
+    <t>2,901.8 us</t>
+  </si>
+  <si>
+    <t>6.36 us</t>
+  </si>
+  <si>
+    <t>32.30 us</t>
+  </si>
+  <si>
+    <t>2,907.3 us</t>
+  </si>
+  <si>
+    <t>3,948.6 us</t>
+  </si>
+  <si>
+    <t>95.07 us</t>
+  </si>
+  <si>
+    <t>3,937.4 us</t>
+  </si>
+  <si>
+    <t>6,447.9 us</t>
+  </si>
+  <si>
+    <t>17.51 us</t>
+  </si>
+  <si>
+    <t>89.85 us</t>
+  </si>
+  <si>
+    <t>6,446.9 us</t>
+  </si>
+  <si>
+    <t>2,335.5 us</t>
+  </si>
+  <si>
+    <t>10.21 us</t>
+  </si>
+  <si>
+    <t>53.11 us</t>
+  </si>
+  <si>
+    <t>2,326.6 us</t>
+  </si>
+  <si>
+    <t>3,035.5 us</t>
+  </si>
+  <si>
+    <t>4.89 us</t>
+  </si>
+  <si>
+    <t>25.14 us</t>
+  </si>
+  <si>
+    <t>3,033.9 us</t>
+  </si>
+  <si>
+    <t>31,576.4 us</t>
+  </si>
+  <si>
+    <t>46.18 us</t>
+  </si>
+  <si>
+    <t>234.86 us</t>
+  </si>
+  <si>
+    <t>31,559.4 us</t>
+  </si>
+  <si>
+    <t>6,244.3 us</t>
+  </si>
+  <si>
+    <t>30.85 us</t>
+  </si>
+  <si>
+    <t>159.97 us</t>
+  </si>
+  <si>
+    <t>6,219.6 us</t>
+  </si>
+  <si>
+    <t>1967.66 KB</t>
+  </si>
+  <si>
+    <t>12,579.2 us</t>
+  </si>
+  <si>
+    <t>31.14 us</t>
+  </si>
+  <si>
+    <t>158.68 us</t>
+  </si>
+  <si>
+    <t>12,522.5 us</t>
+  </si>
+  <si>
+    <t>5,279.8 us</t>
+  </si>
+  <si>
+    <t>9.09 us</t>
+  </si>
+  <si>
+    <t>46.80 us</t>
+  </si>
+  <si>
+    <t>5,282.3 us</t>
+  </si>
+  <si>
+    <t>1236.31 KB</t>
+  </si>
+  <si>
+    <t>8,379.6 us</t>
+  </si>
+  <si>
+    <t>12.44 us</t>
+  </si>
+  <si>
+    <t>63.61 us</t>
+  </si>
+  <si>
+    <t>8,366.6 us</t>
+  </si>
+  <si>
+    <t>5,035.9 us</t>
+  </si>
+  <si>
+    <t>9.01 us</t>
+  </si>
+  <si>
+    <t>46.65 us</t>
+  </si>
+  <si>
+    <t>5,038.0 us</t>
+  </si>
+  <si>
+    <t>2,281.5 us</t>
+  </si>
+  <si>
+    <t>30.59 us</t>
+  </si>
+  <si>
+    <t>2,275.9 us</t>
+  </si>
+  <si>
+    <t>902.9 us</t>
+  </si>
+  <si>
+    <t>1.29 us</t>
+  </si>
+  <si>
+    <t>6.56 us</t>
+  </si>
+  <si>
+    <t>901.7 us</t>
+  </si>
+  <si>
+    <t>8,349.6 us</t>
+  </si>
+  <si>
+    <t>12.16 us</t>
+  </si>
+  <si>
+    <t>62.72 us</t>
+  </si>
+  <si>
+    <t>8,341.5 us</t>
+  </si>
+  <si>
+    <t>2,100.5 us</t>
+  </si>
+  <si>
+    <t>5.10 us</t>
+  </si>
+  <si>
+    <t>26.39 us</t>
+  </si>
+  <si>
+    <t>2,100.9 us</t>
+  </si>
+  <si>
+    <t>805.23 KB</t>
+  </si>
+  <si>
+    <t>3,724.0 us</t>
+  </si>
+  <si>
+    <t>7.93 us</t>
+  </si>
+  <si>
+    <t>40.53 us</t>
+  </si>
+  <si>
+    <t>3,721.2 us</t>
+  </si>
+  <si>
+    <t>1,155.3 us</t>
+  </si>
+  <si>
+    <t>2.87 us</t>
+  </si>
+  <si>
+    <t>14.76 us</t>
+  </si>
+  <si>
+    <t>1,155.4 us</t>
+  </si>
+  <si>
+    <t>15,085.8 us</t>
+  </si>
+  <si>
+    <t>38.80 us</t>
+  </si>
+  <si>
+    <t>200.86 us</t>
+  </si>
+  <si>
+    <t>15,102.9 us</t>
+  </si>
+  <si>
+    <t>6769.19 KB</t>
+  </si>
+  <si>
+    <t>8,436.3 us</t>
+  </si>
+  <si>
+    <t>30.23 us</t>
+  </si>
+  <si>
+    <t>154.04 us</t>
+  </si>
+  <si>
+    <t>8,381.0 us</t>
+  </si>
+  <si>
+    <t>5,152.3 us</t>
+  </si>
+  <si>
+    <t>6.54 us</t>
+  </si>
+  <si>
+    <t>33.56 us</t>
+  </si>
+  <si>
+    <t>5,150.7 us</t>
+  </si>
+  <si>
+    <t>4,503.5 us</t>
+  </si>
+  <si>
+    <t>8.75 us</t>
+  </si>
+  <si>
+    <t>44.25 us</t>
+  </si>
+  <si>
+    <t>4,496.4 us</t>
+  </si>
+  <si>
+    <t>4,015.4 us</t>
+  </si>
+  <si>
+    <t>20.26 us</t>
+  </si>
+  <si>
+    <t>4,016.5 us</t>
+  </si>
+  <si>
+    <t>4,120.9 us</t>
+  </si>
+  <si>
+    <t>4.10 us</t>
+  </si>
+  <si>
+    <t>20.90 us</t>
+  </si>
+  <si>
+    <t>4,121.8 us</t>
+  </si>
+  <si>
+    <t>1,466.6 us</t>
+  </si>
+  <si>
+    <t>4.39 us</t>
+  </si>
+  <si>
+    <t>22.72 us</t>
+  </si>
+  <si>
+    <t>1,463.1 us</t>
+  </si>
+  <si>
+    <t>876.4 us</t>
+  </si>
+  <si>
+    <t>1.08 us</t>
+  </si>
+  <si>
+    <t>5.53 us</t>
+  </si>
+  <si>
+    <t>874.5 us</t>
+  </si>
+  <si>
+    <t>3,971.7 us</t>
+  </si>
+  <si>
+    <t>7.69 us</t>
+  </si>
+  <si>
+    <t>39.80 us</t>
+  </si>
+  <si>
+    <t>3,973.8 us</t>
+  </si>
+  <si>
+    <t>2,986.5 us</t>
+  </si>
+  <si>
+    <t>7.21 us</t>
+  </si>
+  <si>
+    <t>36.74 us</t>
+  </si>
+  <si>
+    <t>2,996.7 us</t>
+  </si>
+  <si>
+    <t>2,046.8 us</t>
+  </si>
+  <si>
+    <t>4.26 us</t>
+  </si>
+  <si>
+    <t>21.98 us</t>
+  </si>
+  <si>
+    <t>2,045.3 us</t>
+  </si>
+  <si>
+    <t>1,252.0 us</t>
+  </si>
+  <si>
+    <t>1.20 us</t>
+  </si>
+  <si>
+    <t>6.06 us</t>
+  </si>
+  <si>
+    <t>1,250.5 us</t>
   </si>
 </sst>
 </file>
@@ -12035,19 +12029,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1824.8</c:v>
+                  <c:v>1786.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1058.8</c:v>
+                  <c:v>1105.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1627.1</c:v>
+                  <c:v>1613.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1233.0999999999999</c:v>
+                  <c:v>1237.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>954.4</c:v>
+                  <c:v>1026.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12181,19 +12175,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5082.1000000000004</c:v>
+                  <c:v>5152.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3921.1</c:v>
+                  <c:v>4015.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3847.1</c:v>
+                  <c:v>3971.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983.4</c:v>
+                  <c:v>2046.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1447.7</c:v>
+                  <c:v>1466.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12326,19 +12320,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9288.6</c:v>
+                  <c:v>9618.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10755.5</c:v>
+                  <c:v>11052.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8459.2999999999993</c:v>
+                  <c:v>8837.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6179.8</c:v>
+                  <c:v>6447.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3042.3</c:v>
+                  <c:v>3138.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12461,19 +12455,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4923.2</c:v>
+                  <c:v>5290.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3265.7</c:v>
+                  <c:v>3382.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3737.1</c:v>
+                  <c:v>3948.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2324.3000000000002</c:v>
+                  <c:v>2335.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1628.7</c:v>
+                  <c:v>1679.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12616,19 +12610,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12281.7</c:v>
+                  <c:v>12579.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8200.4</c:v>
+                  <c:v>8379.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8321.1</c:v>
+                  <c:v>8349.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3725.9</c:v>
+                  <c:v>3724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2322.9</c:v>
+                  <c:v>2281.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24251,19 +24245,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2236.9</c:v>
+                  <c:v>2452.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1821.6</c:v>
+                  <c:v>2048.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1342.2</c:v>
+                  <c:v>1478.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>668.2</c:v>
+                  <c:v>733.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>669.1</c:v>
+                  <c:v>740.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24397,19 +24391,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4388.8</c:v>
+                  <c:v>4503.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4120.5</c:v>
+                  <c:v>4120.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2909.4</c:v>
+                  <c:v>2986.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1213.2</c:v>
+                  <c:v>1252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>843.4</c:v>
+                  <c:v>876.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24542,19 +24536,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5184.7</c:v>
+                  <c:v>5455.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5947.3</c:v>
+                  <c:v>6433.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4901.5</c:v>
+                  <c:v>5091.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2699.1</c:v>
+                  <c:v>2833.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2106.1999999999998</c:v>
+                  <c:v>2207.8000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24677,19 +24671,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10696.2</c:v>
+                  <c:v>11411.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10176.799999999999</c:v>
+                  <c:v>10724.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6244.7</c:v>
+                  <c:v>6447.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2985.2</c:v>
+                  <c:v>3035.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2819.8</c:v>
+                  <c:v>2901.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24832,19 +24826,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5025.3999999999996</c:v>
+                  <c:v>5279.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4852.6000000000004</c:v>
+                  <c:v>5035.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1999.1</c:v>
+                  <c:v>2100.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1102.0999999999999</c:v>
+                  <c:v>1155.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>871</c:v>
+                  <c:v>902.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31378,10 +31372,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9346.1</c:v>
+                  <c:v>9163.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3534.8</c:v>
+                  <c:v>4018.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31505,10 +31499,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14577.4</c:v>
+                  <c:v>15085.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8132.3</c:v>
+                  <c:v>8436.2999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31653,10 +31647,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24261.200000000001</c:v>
+                  <c:v>25434.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13704.4</c:v>
+                  <c:v>14136.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31770,10 +31764,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>30461.9</c:v>
+                  <c:v>31576.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5294</c:v>
+                  <c:v>6244.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31928,10 +31922,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>35367.1</c:v>
+                  <c:v>37111.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12112.1</c:v>
+                  <c:v>13255.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32219,9 +32213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>797249</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19011</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32254,15 +32248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>54301</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32332,15 +32326,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44107.762266898149" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30" xr:uid="{7E47C6CE-8AFA-4A77-B2FE-7280B1D7FCEB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44166.903350115739" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30" xr:uid="{7E47C6CE-8AFA-4A77-B2FE-7280B1D7FCEB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D31" sheet="Parse"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Method" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Parse"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="LibraryName" numFmtId="0">
       <sharedItems count="5">
@@ -32362,7 +32354,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Mean" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="954.4" maxValue="35367.1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1026.8" maxValue="37111.199999999997"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -32374,7 +32366,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44107.821050231483" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25" xr:uid="{36622F20-DB1B-4D0B-B681-FF83C411F95C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44166.903350231485" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="25" xr:uid="{36622F20-DB1B-4D0B-B681-FF83C411F95C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D26" sheet="Serialize"/>
   </cacheSource>
@@ -32401,7 +32393,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Mean" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="668.2" maxValue="10696.2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="733.7" maxValue="11411.6"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -32413,7 +32405,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44109.923486921296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{BA4E1B65-78BE-498F-B551-2B6B91CB301A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kazuhiro Fujieda" refreshedDate="44166.903350231485" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{BA4E1B65-78BE-498F-B551-2B6B91CB301A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C11" sheet="citm"/>
   </cacheSource>
@@ -32434,7 +32426,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Mean" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3534.8" maxValue="35367.1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4018.1" maxValue="37111.199999999997"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -32448,184 +32440,184 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
   <r>
+    <s v="Parse"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="9346.1"/>
+    <n v="9163.1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1824.8"/>
+    <n v="1786.2"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="1058.8"/>
+    <n v="1105.2"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="954.4"/>
+    <n v="1026.8"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="1627.1"/>
+    <n v="1613.2"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="0"/>
     <x v="5"/>
-    <n v="1233.0999999999999"/>
+    <n v="1237.5"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="35367.1"/>
+    <n v="37111.199999999997"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="9288.6"/>
+    <n v="9618.1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="10755.5"/>
+    <n v="11052.8"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="3042.3"/>
+    <n v="3138.4"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="8459.2999999999993"/>
+    <n v="8837.1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="2"/>
     <x v="5"/>
-    <n v="6179.8"/>
+    <n v="6447.4"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="24261.200000000001"/>
+    <n v="25434.2"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="4923.2"/>
+    <n v="5290.1"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="3265.7"/>
+    <n v="3382.3"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="1628.7"/>
+    <n v="1679.4"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="3737.1"/>
+    <n v="3948.6"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="2324.3000000000002"/>
+    <n v="2335.5"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="30461.9"/>
+    <n v="31576.400000000001"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="12281.7"/>
+    <n v="12579.2"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="8200.4"/>
+    <n v="8379.6"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="2322.9"/>
+    <n v="2281.5"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="8321.1"/>
+    <n v="8349.6"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="1"/>
     <x v="5"/>
-    <n v="3725.9"/>
+    <n v="3724"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="14577.4"/>
+    <n v="15085.8"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="5082.1000000000004"/>
+    <n v="5152.3"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="3921.1"/>
+    <n v="4015.4"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="1447.7"/>
+    <n v="1466.6"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="3847.1"/>
+    <n v="3971.7"/>
   </r>
   <r>
-    <x v="0"/>
+    <s v="Parse"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="1983.4"/>
+    <n v="2046.8"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -32636,151 +32628,151 @@
     <s v="Serialize"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="2236.9"/>
+    <n v="2452.6"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1821.6"/>
+    <n v="2048.4"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="669.1"/>
+    <n v="740.6"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="1342.2"/>
+    <n v="1478.3"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="668.2"/>
+    <n v="733.7"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="5184.7"/>
+    <n v="5455.8"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="5947.3"/>
+    <n v="6433.2"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="2106.1999999999998"/>
+    <n v="2207.8000000000002"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="4901.5"/>
+    <n v="5091.7"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="2699.1"/>
+    <n v="2833.4"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="10696.2"/>
+    <n v="11411.6"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="10176.799999999999"/>
+    <n v="10724.1"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="2819.8"/>
+    <n v="2901.8"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="6244.7"/>
+    <n v="6447.9"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="2985.2"/>
+    <n v="3035.5"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="5025.3999999999996"/>
+    <n v="5279.8"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="4852.6000000000004"/>
+    <n v="5035.8999999999996"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="871"/>
+    <n v="902.9"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="1999.1"/>
+    <n v="2100.5"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="1102.0999999999999"/>
+    <n v="1155.3"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="4388.8"/>
+    <n v="4503.5"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="4120.5"/>
+    <n v="4120.8999999999996"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="843.4"/>
+    <n v="876.4"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="2909.4"/>
+    <n v="2986.5"/>
   </r>
   <r>
     <s v="Serialize"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="1213.2"/>
+    <n v="1252"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -32790,66 +32782,61 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="9346.1"/>
+    <n v="9163.1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="3534.8"/>
+    <n v="4018.1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="35367.1"/>
+    <n v="37111.199999999997"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="12112.1"/>
+    <n v="13255.3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="24261.200000000001"/>
+    <n v="25434.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="13704.4"/>
+    <n v="14136.3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="30461.9"/>
+    <n v="31576.400000000001"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="5294"/>
+    <n v="6244.3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="14577.4"/>
+    <n v="15085.8"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="8132.3"/>
+    <n v="8436.2999999999993"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73A6302E-ECBB-4599-BD66-3642249CBBF6}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73A6302E-ECBB-4599-BD66-3642249CBBF6}" name="ピボットテーブル1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -33327,7 +33314,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4D4E6C3-325A-4438-85BE-D6B28CB45690}" name="ピボットテーブル2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4D4E6C3-325A-4438-85BE-D6B28CB45690}" name="ピボットテーブル2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -33507,7 +33494,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEDFBDF1-9CFE-426C-8B50-37AD72D82851}" name="ピボットテーブル9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEDFBDF1-9CFE-426C-8B50-37AD72D82851}" name="ピボットテーブル9" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -33987,7 +33974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AZ61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -34119,10 +34108,10 @@
         <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AR1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AS1" t="s">
         <v>42</v>
@@ -34193,7 +34182,7 @@
         <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -34283,16 +34272,16 @@
         <v>56</v>
       </c>
       <c r="AS2" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="AT2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="AU2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="AV2" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="AW2">
         <v>296.875</v>
@@ -34304,7 +34293,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.4">
@@ -34351,7 +34340,7 @@
         <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -34441,28 +34430,28 @@
         <v>56</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="AT3" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AU3" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="AV3" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="AW3">
-        <v>253.90629999999999</v>
+        <v>250</v>
       </c>
       <c r="AX3">
-        <v>207.03129999999999</v>
+        <v>203.125</v>
       </c>
       <c r="AY3">
         <v>164.0625</v>
       </c>
       <c r="AZ3" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.4">
@@ -34509,7 +34498,7 @@
         <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -34599,28 +34588,28 @@
         <v>58</v>
       </c>
       <c r="AS4" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AT4" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AU4" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AV4" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AW4">
         <v>89.843800000000002</v>
       </c>
       <c r="AX4">
-        <v>42.968800000000002</v>
+        <v>41.015599999999999</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.4">
@@ -34667,7 +34656,7 @@
         <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -34757,16 +34746,16 @@
         <v>58</v>
       </c>
       <c r="AS5" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AT5" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AU5" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AV5" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AW5">
         <v>140.625</v>
@@ -34778,7 +34767,7 @@
         <v>140.625</v>
       </c>
       <c r="AZ5" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.4">
@@ -34825,7 +34814,7 @@
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -34915,28 +34904,28 @@
         <v>59</v>
       </c>
       <c r="AS6" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AT6" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AU6" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AV6" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AW6">
-        <v>64.453100000000006</v>
+        <v>62.5</v>
       </c>
       <c r="AX6">
-        <v>31.25</v>
+        <v>25.390599999999999</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.4">
@@ -34983,7 +34972,7 @@
         <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -35073,28 +35062,28 @@
         <v>59</v>
       </c>
       <c r="AS7" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="AT7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="AU7" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="AV7" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AW7">
-        <v>123.04689999999999</v>
+        <v>121.0938</v>
       </c>
       <c r="AX7">
-        <v>123.04689999999999</v>
+        <v>121.0938</v>
       </c>
       <c r="AY7">
-        <v>123.04689999999999</v>
+        <v>121.0938</v>
       </c>
       <c r="AZ7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.4">
@@ -35141,7 +35130,7 @@
         <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -35231,28 +35220,28 @@
         <v>60</v>
       </c>
       <c r="AS8" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="AT8" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="AU8" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="AV8" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="AW8">
-        <v>34.179699999999997</v>
+        <v>33.203099999999999</v>
       </c>
       <c r="AX8">
-        <v>16.601600000000001</v>
+        <v>15.625</v>
       </c>
       <c r="AY8">
         <v>0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.4">
@@ -35299,7 +35288,7 @@
         <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -35389,16 +35378,16 @@
         <v>60</v>
       </c>
       <c r="AS9" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="AT9" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="AU9" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="AV9" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AW9">
         <v>99.609399999999994</v>
@@ -35410,7 +35399,7 @@
         <v>99.609399999999994</v>
       </c>
       <c r="AZ9" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.4">
@@ -35457,7 +35446,7 @@
         <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -35547,28 +35536,28 @@
         <v>61</v>
       </c>
       <c r="AS10" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="AT10" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AU10" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="AV10" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="AW10">
         <v>78.125</v>
       </c>
       <c r="AX10">
-        <v>27.343800000000002</v>
+        <v>31.25</v>
       </c>
       <c r="AY10">
         <v>0</v>
       </c>
       <c r="AZ10" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.4">
@@ -35615,7 +35604,7 @@
         <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -35705,16 +35694,16 @@
         <v>61</v>
       </c>
       <c r="AS11" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="AT11" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="AU11" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="AV11" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="AW11">
         <v>109.375</v>
@@ -35726,7 +35715,7 @@
         <v>109.375</v>
       </c>
       <c r="AZ11" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.4">
@@ -35773,7 +35762,7 @@
         <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -35863,16 +35852,16 @@
         <v>62</v>
       </c>
       <c r="AS12" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="AT12" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AU12" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AV12" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="AW12">
         <v>42.968800000000002</v>
@@ -35884,7 +35873,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.4">
@@ -35931,7 +35920,7 @@
         <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -36021,16 +36010,16 @@
         <v>62</v>
       </c>
       <c r="AS13" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="AT13" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="AU13" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="AV13" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="AW13">
         <v>83.007800000000003</v>
@@ -36042,7 +36031,7 @@
         <v>83.007800000000003</v>
       </c>
       <c r="AZ13" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.4">
@@ -36089,7 +36078,7 @@
         <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -36179,28 +36168,28 @@
         <v>56</v>
       </c>
       <c r="AS14" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="AT14" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="AU14" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="AV14" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="AW14">
-        <v>1200</v>
+        <v>1142.8570999999999</v>
       </c>
       <c r="AX14">
-        <v>1133.3333</v>
+        <v>1071.4286</v>
       </c>
       <c r="AY14">
-        <v>933.33330000000001</v>
+        <v>928.57140000000004</v>
       </c>
       <c r="AZ14" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.4">
@@ -36247,7 +36236,7 @@
         <v>54</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -36337,16 +36326,16 @@
         <v>56</v>
       </c>
       <c r="AS15" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="AT15" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="AU15" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="AV15" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="AW15">
         <v>656.25</v>
@@ -36358,7 +36347,7 @@
         <v>656.25</v>
       </c>
       <c r="AZ15" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.4">
@@ -36405,7 +36394,7 @@
         <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -36495,16 +36484,16 @@
         <v>58</v>
       </c>
       <c r="AS16" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="AT16" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="AU16" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="AV16" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="AW16">
         <v>265.625</v>
@@ -36516,7 +36505,7 @@
         <v>265.625</v>
       </c>
       <c r="AZ16" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.4">
@@ -36563,7 +36552,7 @@
         <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -36653,16 +36642,16 @@
         <v>58</v>
       </c>
       <c r="AS17" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="AT17" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="AU17" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="AV17" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="AW17">
         <v>492.1875</v>
@@ -36674,7 +36663,7 @@
         <v>492.1875</v>
       </c>
       <c r="AZ17" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.4">
@@ -36721,7 +36710,7 @@
         <v>54</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -36811,16 +36800,16 @@
         <v>59</v>
       </c>
       <c r="AS18" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="AT18" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="AU18" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="AV18" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="AW18">
         <v>265.625</v>
@@ -36832,7 +36821,7 @@
         <v>265.625</v>
       </c>
       <c r="AZ18" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.4">
@@ -36879,7 +36868,7 @@
         <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -36969,16 +36958,16 @@
         <v>59</v>
       </c>
       <c r="AS19" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="AT19" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AU19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="AV19" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="AW19">
         <v>492.1875</v>
@@ -36990,7 +36979,7 @@
         <v>492.1875</v>
       </c>
       <c r="AZ19" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.4">
@@ -37037,7 +37026,7 @@
         <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
@@ -37127,16 +37116,16 @@
         <v>60</v>
       </c>
       <c r="AS20" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="AT20" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="AU20" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AV20" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="AW20">
         <v>269.53129999999999</v>
@@ -37148,7 +37137,7 @@
         <v>269.53129999999999</v>
       </c>
       <c r="AZ20" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.4">
@@ -37195,7 +37184,7 @@
         <v>54</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -37285,16 +37274,16 @@
         <v>60</v>
       </c>
       <c r="AS21" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="AT21" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AU21" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AV21" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="AW21">
         <v>441.40629999999999</v>
@@ -37306,7 +37295,7 @@
         <v>441.40629999999999</v>
       </c>
       <c r="AZ21" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.4">
@@ -37353,7 +37342,7 @@
         <v>54</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
@@ -37443,16 +37432,16 @@
         <v>61</v>
       </c>
       <c r="AS22" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="AT22" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="AU22" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AV22" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AW22">
         <v>328.125</v>
@@ -37464,7 +37453,7 @@
         <v>250</v>
       </c>
       <c r="AZ22" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.4">
@@ -37511,7 +37500,7 @@
         <v>54</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
@@ -37601,16 +37590,16 @@
         <v>61</v>
       </c>
       <c r="AS23" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AT23" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AU23" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AV23" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="AW23">
         <v>492.1875</v>
@@ -37622,7 +37611,7 @@
         <v>492.1875</v>
       </c>
       <c r="AZ23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.4">
@@ -37669,7 +37658,7 @@
         <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -37759,16 +37748,16 @@
         <v>62</v>
       </c>
       <c r="AS24" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="AT24" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AU24" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AV24" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="AW24">
         <v>265.625</v>
@@ -37780,7 +37769,7 @@
         <v>265.625</v>
       </c>
       <c r="AZ24" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.4">
@@ -37827,7 +37816,7 @@
         <v>54</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
@@ -37917,16 +37906,16 @@
         <v>62</v>
       </c>
       <c r="AS25" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="AT25" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="AU25" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="AV25" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="AW25">
         <v>441.40629999999999</v>
@@ -37938,7 +37927,7 @@
         <v>441.40629999999999</v>
       </c>
       <c r="AZ25" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.4">
@@ -37985,7 +37974,7 @@
         <v>54</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
@@ -38075,16 +38064,16 @@
         <v>56</v>
       </c>
       <c r="AS26" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AT26" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="AU26" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="AV26" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="AW26">
         <v>750</v>
@@ -38096,7 +38085,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.4">
@@ -38143,7 +38132,7 @@
         <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P27" t="b">
         <v>0</v>
@@ -38233,16 +38222,16 @@
         <v>56</v>
       </c>
       <c r="AS27" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="AT27" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="AU27" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="AV27" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="AW27">
         <v>343.75</v>
@@ -38254,7 +38243,7 @@
         <v>93.75</v>
       </c>
       <c r="AZ27" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.4">
@@ -38301,7 +38290,7 @@
         <v>54</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
@@ -38391,16 +38380,16 @@
         <v>58</v>
       </c>
       <c r="AS28" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="AT28" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="AU28" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="AV28" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="AW28">
         <v>320.3125</v>
@@ -38412,7 +38401,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.4">
@@ -38459,7 +38448,7 @@
         <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P29" t="b">
         <v>0</v>
@@ -38549,16 +38538,16 @@
         <v>58</v>
       </c>
       <c r="AS29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AT29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="AU29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="AV29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="AW29">
         <v>171.875</v>
@@ -38570,7 +38559,7 @@
         <v>109.375</v>
       </c>
       <c r="AZ29" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.4">
@@ -38617,7 +38606,7 @@
         <v>54</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
@@ -38707,16 +38696,16 @@
         <v>59</v>
       </c>
       <c r="AS30" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="AT30" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="AU30" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="AV30" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="AW30">
         <v>175.78129999999999</v>
@@ -38728,7 +38717,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.4">
@@ -38775,7 +38764,7 @@
         <v>54</v>
       </c>
       <c r="O31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
@@ -38865,16 +38854,16 @@
         <v>59</v>
       </c>
       <c r="AS31" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="AT31" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="AU31" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AV31" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="AW31">
         <v>218.75</v>
@@ -38886,7 +38875,7 @@
         <v>109.375</v>
       </c>
       <c r="AZ31" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.4">
@@ -38933,7 +38922,7 @@
         <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
@@ -39023,16 +39012,16 @@
         <v>60</v>
       </c>
       <c r="AS32" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AT32" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="AU32" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="AV32" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="AW32">
         <v>83.984399999999994</v>
@@ -39044,7 +39033,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.4">
@@ -39091,7 +39080,7 @@
         <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
@@ -39181,16 +39170,16 @@
         <v>60</v>
       </c>
       <c r="AS33" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="AT33" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="AU33" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="AV33" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="AW33">
         <v>89.843800000000002</v>
@@ -39202,7 +39191,7 @@
         <v>89.843800000000002</v>
       </c>
       <c r="AZ33" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.4">
@@ -39249,7 +39238,7 @@
         <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
@@ -39339,16 +39328,16 @@
         <v>61</v>
       </c>
       <c r="AS34" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="AT34" t="s">
-        <v>241</v>
+        <v>89</v>
       </c>
       <c r="AU34" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="AV34" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="AW34">
         <v>246.09379999999999</v>
@@ -39360,7 +39349,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.4">
@@ -39407,7 +39396,7 @@
         <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
@@ -39497,16 +39486,16 @@
         <v>61</v>
       </c>
       <c r="AS35" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="AT35" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AU35" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AV35" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AW35">
         <v>109.375</v>
@@ -39518,7 +39507,7 @@
         <v>109.375</v>
       </c>
       <c r="AZ35" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.4">
@@ -39565,7 +39554,7 @@
         <v>54</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P36" t="b">
         <v>0</v>
@@ -39655,16 +39644,16 @@
         <v>62</v>
       </c>
       <c r="AS36" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="AT36" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AU36" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="AV36" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AW36">
         <v>128.90629999999999</v>
@@ -39676,7 +39665,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.4">
@@ -39723,7 +39712,7 @@
         <v>54</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P37" t="b">
         <v>0</v>
@@ -39813,16 +39802,16 @@
         <v>62</v>
       </c>
       <c r="AS37" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="AT37" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="AU37" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AV37" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AW37">
         <v>82.031300000000002</v>
@@ -39834,7 +39823,7 @@
         <v>82.031300000000002</v>
       </c>
       <c r="AZ37" t="s">
-        <v>259</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.4">
@@ -39881,7 +39870,7 @@
         <v>54</v>
       </c>
       <c r="O38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
@@ -39971,16 +39960,16 @@
         <v>56</v>
       </c>
       <c r="AS38" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AT38" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AU38" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AV38" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AW38">
         <v>750</v>
@@ -39992,7 +39981,7 @@
         <v>0</v>
       </c>
       <c r="AZ38" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.4">
@@ -40039,7 +40028,7 @@
         <v>54</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
@@ -40129,16 +40118,16 @@
         <v>56</v>
       </c>
       <c r="AS39" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="AT39" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="AU39" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="AV39" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="AW39">
         <v>117.1875</v>
@@ -40150,7 +40139,7 @@
         <v>70.3125</v>
       </c>
       <c r="AZ39" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.4">
@@ -40197,7 +40186,7 @@
         <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P40" t="b">
         <v>0</v>
@@ -40287,16 +40276,16 @@
         <v>58</v>
       </c>
       <c r="AS40" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="AT40" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AU40" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="AV40" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="AW40">
         <v>312.5</v>
@@ -40308,7 +40297,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" t="s">
-        <v>274</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.4">
@@ -40355,7 +40344,7 @@
         <v>54</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
@@ -40445,16 +40434,16 @@
         <v>58</v>
       </c>
       <c r="AS41" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AT41" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AU41" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AV41" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AW41">
         <v>117.1875</v>
@@ -40466,7 +40455,7 @@
         <v>70.3125</v>
       </c>
       <c r="AZ41" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.4">
@@ -40513,7 +40502,7 @@
         <v>54</v>
       </c>
       <c r="O42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
@@ -40603,16 +40592,16 @@
         <v>59</v>
       </c>
       <c r="AS42" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AT42" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AU42" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AV42" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AW42">
         <v>203.125</v>
@@ -40624,7 +40613,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.4">
@@ -40671,7 +40660,7 @@
         <v>54</v>
       </c>
       <c r="O43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
@@ -40761,16 +40750,16 @@
         <v>59</v>
       </c>
       <c r="AS43" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AT43" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AU43" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="AV43" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="AW43">
         <v>109.375</v>
@@ -40782,7 +40771,7 @@
         <v>109.375</v>
       </c>
       <c r="AZ43" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.4">
@@ -40829,7 +40818,7 @@
         <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
@@ -40919,16 +40908,16 @@
         <v>60</v>
       </c>
       <c r="AS44" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AT44" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="AU44" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="AV44" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AW44">
         <v>74.218800000000002</v>
@@ -40940,7 +40929,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.4">
@@ -40987,7 +40976,7 @@
         <v>54</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -41077,28 +41066,28 @@
         <v>60</v>
       </c>
       <c r="AS45" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="AT45" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="AU45" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="AV45" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="AW45">
-        <v>90.820300000000003</v>
+        <v>89.843800000000002</v>
       </c>
       <c r="AX45">
-        <v>90.820300000000003</v>
+        <v>89.843800000000002</v>
       </c>
       <c r="AY45">
-        <v>90.820300000000003</v>
+        <v>89.843800000000002</v>
       </c>
       <c r="AZ45" t="s">
-        <v>299</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.4">
@@ -41145,7 +41134,7 @@
         <v>54</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
@@ -41235,16 +41224,16 @@
         <v>61</v>
       </c>
       <c r="AS46" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AT46" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AU46" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AV46" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AW46">
         <v>234.375</v>
@@ -41256,7 +41245,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" t="s">
-        <v>304</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.4">
@@ -41303,7 +41292,7 @@
         <v>54</v>
       </c>
       <c r="O47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
@@ -41393,28 +41382,28 @@
         <v>61</v>
       </c>
       <c r="AS47" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AT47" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AU47" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AV47" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AW47">
         <v>105.4688</v>
       </c>
       <c r="AX47">
-        <v>89.843800000000002</v>
+        <v>93.75</v>
       </c>
       <c r="AY47">
         <v>82.031300000000002</v>
       </c>
       <c r="AZ47" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.4">
@@ -41461,7 +41450,7 @@
         <v>54</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
@@ -41551,16 +41540,16 @@
         <v>62</v>
       </c>
       <c r="AS48" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AT48" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AU48" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AV48" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AW48">
         <v>117.1875</v>
@@ -41572,7 +41561,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" t="s">
-        <v>314</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.4">
@@ -41619,7 +41608,7 @@
         <v>54</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
@@ -41709,16 +41698,16 @@
         <v>62</v>
       </c>
       <c r="AS49" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AT49" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AU49" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AV49" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AW49">
         <v>82.031300000000002</v>
@@ -41730,7 +41719,7 @@
         <v>82.031300000000002</v>
       </c>
       <c r="AZ49" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.4">
@@ -41777,7 +41766,7 @@
         <v>54</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P50" t="b">
         <v>0</v>
@@ -41867,16 +41856,16 @@
         <v>56</v>
       </c>
       <c r="AS50" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AT50" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AU50" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AV50" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AW50">
         <v>531.25</v>
@@ -41888,7 +41877,7 @@
         <v>265.625</v>
       </c>
       <c r="AZ50" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.4">
@@ -41935,7 +41924,7 @@
         <v>54</v>
       </c>
       <c r="O51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
@@ -42025,16 +42014,16 @@
         <v>56</v>
       </c>
       <c r="AS51" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AT51" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AU51" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AV51" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AW51">
         <v>328.125</v>
@@ -42046,7 +42035,7 @@
         <v>328.125</v>
       </c>
       <c r="AZ51" t="s">
-        <v>329</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.4">
@@ -42093,7 +42082,7 @@
         <v>54</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -42183,16 +42172,16 @@
         <v>58</v>
       </c>
       <c r="AS52" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AT52" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AU52" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AV52" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AW52">
         <v>109.375</v>
@@ -42204,7 +42193,7 @@
         <v>54.6875</v>
       </c>
       <c r="AZ52" t="s">
-        <v>334</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.4">
@@ -42251,7 +42240,7 @@
         <v>54</v>
       </c>
       <c r="O53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
@@ -42341,16 +42330,16 @@
         <v>58</v>
       </c>
       <c r="AS53" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AT53" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AU53" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AV53" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AW53">
         <v>226.5625</v>
@@ -42362,7 +42351,7 @@
         <v>226.5625</v>
       </c>
       <c r="AZ53" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.4">
@@ -42409,7 +42398,7 @@
         <v>54</v>
       </c>
       <c r="O54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
@@ -42499,16 +42488,16 @@
         <v>59</v>
       </c>
       <c r="AS54" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AT54" t="s">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AU54" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AV54" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AW54">
         <v>109.375</v>
@@ -42520,7 +42509,7 @@
         <v>54.6875</v>
       </c>
       <c r="AZ54" t="s">
-        <v>344</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.4">
@@ -42567,7 +42556,7 @@
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
@@ -42657,16 +42646,16 @@
         <v>59</v>
       </c>
       <c r="AS55" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AT55" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AU55" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AV55" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AW55">
         <v>226.5625</v>
@@ -42678,7 +42667,7 @@
         <v>226.5625</v>
       </c>
       <c r="AZ55" t="s">
-        <v>349</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.4">
@@ -42725,7 +42714,7 @@
         <v>54</v>
       </c>
       <c r="O56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
@@ -42815,16 +42804,16 @@
         <v>60</v>
       </c>
       <c r="AS56" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AT56" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AU56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AV56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AW56">
         <v>54.6875</v>
@@ -42836,7 +42825,7 @@
         <v>54.6875</v>
       </c>
       <c r="AZ56" t="s">
-        <v>354</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.4">
@@ -42883,7 +42872,7 @@
         <v>54</v>
       </c>
       <c r="O57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
@@ -43041,7 +43030,7 @@
         <v>54</v>
       </c>
       <c r="O58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
@@ -43143,16 +43132,16 @@
         <v>362</v>
       </c>
       <c r="AW58">
-        <v>117.1875</v>
+        <v>109.375</v>
       </c>
       <c r="AX58">
-        <v>58.593800000000002</v>
+        <v>54.6875</v>
       </c>
       <c r="AY58">
-        <v>58.593800000000002</v>
+        <v>54.6875</v>
       </c>
       <c r="AZ58" t="s">
-        <v>363</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.4">
@@ -43199,7 +43188,7 @@
         <v>54</v>
       </c>
       <c r="O59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
@@ -43289,16 +43278,16 @@
         <v>61</v>
       </c>
       <c r="AS59" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT59" t="s">
         <v>364</v>
       </c>
-      <c r="AT59" t="s">
+      <c r="AU59" t="s">
         <v>365</v>
       </c>
-      <c r="AU59" t="s">
+      <c r="AV59" t="s">
         <v>366</v>
-      </c>
-      <c r="AV59" t="s">
-        <v>367</v>
       </c>
       <c r="AW59">
         <v>230.46879999999999</v>
@@ -43357,7 +43346,7 @@
         <v>54</v>
       </c>
       <c r="O60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -43447,16 +43436,16 @@
         <v>62</v>
       </c>
       <c r="AS60" t="s">
+        <v>367</v>
+      </c>
+      <c r="AT60" t="s">
         <v>368</v>
       </c>
-      <c r="AT60" t="s">
+      <c r="AU60" t="s">
         <v>369</v>
       </c>
-      <c r="AU60" t="s">
+      <c r="AV60" t="s">
         <v>370</v>
-      </c>
-      <c r="AV60" t="s">
-        <v>371</v>
       </c>
       <c r="AW60">
         <v>54.6875</v>
@@ -43468,7 +43457,7 @@
         <v>54.6875</v>
       </c>
       <c r="AZ60" t="s">
-        <v>372</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.4">
@@ -43515,7 +43504,7 @@
         <v>54</v>
       </c>
       <c r="O61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P61" t="b">
         <v>0</v>
@@ -43605,16 +43594,16 @@
         <v>62</v>
       </c>
       <c r="AS61" t="s">
+        <v>371</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU61" t="s">
         <v>373</v>
       </c>
-      <c r="AT61" t="s">
+      <c r="AV61" t="s">
         <v>374</v>
-      </c>
-      <c r="AU61" t="s">
-        <v>375</v>
-      </c>
-      <c r="AV61" t="s">
-        <v>376</v>
       </c>
       <c r="AW61">
         <v>199.21879999999999</v>
@@ -43683,7 +43672,7 @@
       </c>
       <c r="D2" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS2, ",", ""), " us", "")</f>
-        <v>9346.1</v>
+        <v>9163.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -43701,7 +43690,7 @@
       </c>
       <c r="D3" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS3, ",", ""), " us", "")</f>
-        <v>3534.8</v>
+        <v>4018.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -43719,7 +43708,7 @@
       </c>
       <c r="D4" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS4, ",", ""), " us", "")</f>
-        <v>1824.8</v>
+        <v>1786.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -43737,7 +43726,7 @@
       </c>
       <c r="D5" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS5, ",", ""), " us", "")</f>
-        <v>2236.9</v>
+        <v>2452.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -43755,7 +43744,7 @@
       </c>
       <c r="D6" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS6, ",", ""), " us", "")</f>
-        <v>1058.8</v>
+        <v>1105.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -43773,7 +43762,7 @@
       </c>
       <c r="D7" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS7, ",", ""), " us", "")</f>
-        <v>1821.6</v>
+        <v>2048.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -43791,7 +43780,7 @@
       </c>
       <c r="D8" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS8, ",", ""), " us", "")</f>
-        <v>954.4</v>
+        <v>1026.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -43809,7 +43798,7 @@
       </c>
       <c r="D9" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS9, ",", ""), " us", "")</f>
-        <v>669.1</v>
+        <v>740.6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -43827,7 +43816,7 @@
       </c>
       <c r="D10" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS10, ",", ""), " us", "")</f>
-        <v>1627.1</v>
+        <v>1613.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -43845,7 +43834,7 @@
       </c>
       <c r="D11" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS11, ",", ""), " us", "")</f>
-        <v>1342.2</v>
+        <v>1478.3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -43863,7 +43852,7 @@
       </c>
       <c r="D12" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS12, ",", ""), " us", "")</f>
-        <v>1233.0999999999999</v>
+        <v>1237.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -43881,7 +43870,7 @@
       </c>
       <c r="D13" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS13, ",", ""), " us", "")</f>
-        <v>668.2</v>
+        <v>733.7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -43899,7 +43888,7 @@
       </c>
       <c r="D14" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS14, ",", ""), " us", "")</f>
-        <v>35367.1</v>
+        <v>37111.199999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -43917,7 +43906,7 @@
       </c>
       <c r="D15" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS15, ",", ""), " us", "")</f>
-        <v>12112.1</v>
+        <v>13255.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -43935,7 +43924,7 @@
       </c>
       <c r="D16" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS16, ",", ""), " us", "")</f>
-        <v>9288.6</v>
+        <v>9618.1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -43953,7 +43942,7 @@
       </c>
       <c r="D17" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS17, ",", ""), " us", "")</f>
-        <v>5184.7</v>
+        <v>5455.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -43971,7 +43960,7 @@
       </c>
       <c r="D18" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS18, ",", ""), " us", "")</f>
-        <v>10755.5</v>
+        <v>11052.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -43989,7 +43978,7 @@
       </c>
       <c r="D19" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS19, ",", ""), " us", "")</f>
-        <v>5947.3</v>
+        <v>6433.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -44007,7 +43996,7 @@
       </c>
       <c r="D20" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS20, ",", ""), " us", "")</f>
-        <v>3042.3</v>
+        <v>3138.4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -44025,7 +44014,7 @@
       </c>
       <c r="D21" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS21, ",", ""), " us", "")</f>
-        <v>2106.1999999999998</v>
+        <v>2207.8000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -44043,7 +44032,7 @@
       </c>
       <c r="D22" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS22, ",", ""), " us", "")</f>
-        <v>8459.2999999999993</v>
+        <v>8837.1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -44061,7 +44050,7 @@
       </c>
       <c r="D23" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS23, ",", ""), " us", "")</f>
-        <v>4901.5</v>
+        <v>5091.7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -44079,7 +44068,7 @@
       </c>
       <c r="D24" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS24, ",", ""), " us", "")</f>
-        <v>6179.8</v>
+        <v>6447.4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -44097,7 +44086,7 @@
       </c>
       <c r="D25" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS25, ",", ""), " us", "")</f>
-        <v>2699.1</v>
+        <v>2833.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -44115,7 +44104,7 @@
       </c>
       <c r="D26" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS26, ",", ""), " us", "")</f>
-        <v>24261.200000000001</v>
+        <v>25434.2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -44133,7 +44122,7 @@
       </c>
       <c r="D27" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS27, ",", ""), " us", "")</f>
-        <v>13704.4</v>
+        <v>14136.3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -44151,7 +44140,7 @@
       </c>
       <c r="D28" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS28, ",", ""), " us", "")</f>
-        <v>4923.2</v>
+        <v>5290.1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -44169,7 +44158,7 @@
       </c>
       <c r="D29" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS29, ",", ""), " us", "")</f>
-        <v>10696.2</v>
+        <v>11411.6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -44187,7 +44176,7 @@
       </c>
       <c r="D30" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS30, ",", ""), " us", "")</f>
-        <v>3265.7</v>
+        <v>3382.3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -44205,7 +44194,7 @@
       </c>
       <c r="D31" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS31, ",", ""), " us", "")</f>
-        <v>10176.799999999999</v>
+        <v>10724.1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -44223,7 +44212,7 @@
       </c>
       <c r="D32" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS32, ",", ""), " us", "")</f>
-        <v>1628.7</v>
+        <v>1679.4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -44241,7 +44230,7 @@
       </c>
       <c r="D33" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS33, ",", ""), " us", "")</f>
-        <v>2819.8</v>
+        <v>2901.8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -44259,7 +44248,7 @@
       </c>
       <c r="D34" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS34, ",", ""), " us", "")</f>
-        <v>3737.1</v>
+        <v>3948.6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -44277,7 +44266,7 @@
       </c>
       <c r="D35" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS35, ",", ""), " us", "")</f>
-        <v>6244.7</v>
+        <v>6447.9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -44295,7 +44284,7 @@
       </c>
       <c r="D36" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS36, ",", ""), " us", "")</f>
-        <v>2324.3000000000002</v>
+        <v>2335.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -44313,7 +44302,7 @@
       </c>
       <c r="D37" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS37, ",", ""), " us", "")</f>
-        <v>2985.2</v>
+        <v>3035.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -44331,7 +44320,7 @@
       </c>
       <c r="D38" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS38, ",", ""), " us", "")</f>
-        <v>30461.9</v>
+        <v>31576.400000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -44349,7 +44338,7 @@
       </c>
       <c r="D39" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS39, ",", ""), " us", "")</f>
-        <v>5294</v>
+        <v>6244.3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -44367,7 +44356,7 @@
       </c>
       <c r="D40" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS40, ",", ""), " us", "")</f>
-        <v>12281.7</v>
+        <v>12579.2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -44385,7 +44374,7 @@
       </c>
       <c r="D41" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS41, ",", ""), " us", "")</f>
-        <v>5025.3999999999996</v>
+        <v>5279.8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -44403,7 +44392,7 @@
       </c>
       <c r="D42" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS42, ",", ""), " us", "")</f>
-        <v>8200.4</v>
+        <v>8379.6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -44421,7 +44410,7 @@
       </c>
       <c r="D43" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS43, ",", ""), " us", "")</f>
-        <v>4852.6000000000004</v>
+        <v>5035.8999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -44439,7 +44428,7 @@
       </c>
       <c r="D44" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS44, ",", ""), " us", "")</f>
-        <v>2322.9</v>
+        <v>2281.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -44457,7 +44446,7 @@
       </c>
       <c r="D45" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS45, ",", ""), " us", "")</f>
-        <v>871</v>
+        <v>902.9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -44475,7 +44464,7 @@
       </c>
       <c r="D46" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS46, ",", ""), " us", "")</f>
-        <v>8321.1</v>
+        <v>8349.6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -44493,7 +44482,7 @@
       </c>
       <c r="D47" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS47, ",", ""), " us", "")</f>
-        <v>1999.1</v>
+        <v>2100.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -44511,7 +44500,7 @@
       </c>
       <c r="D48" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS48, ",", ""), " us", "")</f>
-        <v>3725.9</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -44529,7 +44518,7 @@
       </c>
       <c r="D49" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS49, ",", ""), " us", "")</f>
-        <v>1102.0999999999999</v>
+        <v>1155.3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -44547,7 +44536,7 @@
       </c>
       <c r="D50" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS50, ",", ""), " us", "")</f>
-        <v>14577.4</v>
+        <v>15085.8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -44565,7 +44554,7 @@
       </c>
       <c r="D51" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS51, ",", ""), " us", "")</f>
-        <v>8132.3</v>
+        <v>8436.2999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -44583,7 +44572,7 @@
       </c>
       <c r="D52" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS52, ",", ""), " us", "")</f>
-        <v>5082.1000000000004</v>
+        <v>5152.3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -44601,7 +44590,7 @@
       </c>
       <c r="D53" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS53, ",", ""), " us", "")</f>
-        <v>4388.8</v>
+        <v>4503.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -44619,7 +44608,7 @@
       </c>
       <c r="D54" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS54, ",", ""), " us", "")</f>
-        <v>3921.1</v>
+        <v>4015.4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -44637,7 +44626,7 @@
       </c>
       <c r="D55" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS55, ",", ""), " us", "")</f>
-        <v>4120.5</v>
+        <v>4120.8999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -44655,7 +44644,7 @@
       </c>
       <c r="D56" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS56, ",", ""), " us", "")</f>
-        <v>1447.7</v>
+        <v>1466.6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -44673,7 +44662,7 @@
       </c>
       <c r="D57" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS57, ",", ""), " us", "")</f>
-        <v>843.4</v>
+        <v>876.4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -44691,7 +44680,7 @@
       </c>
       <c r="D58" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS58, ",", ""), " us", "")</f>
-        <v>3847.1</v>
+        <v>3971.7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -44709,7 +44698,7 @@
       </c>
       <c r="D59" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS59, ",", ""), " us", "")</f>
-        <v>2909.4</v>
+        <v>2986.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -44727,7 +44716,7 @@
       </c>
       <c r="D60" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS60, ",", ""), " us", "")</f>
-        <v>1983.4</v>
+        <v>2046.8</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -44745,7 +44734,7 @@
       </c>
       <c r="D61" s="1">
         <f>0 + SUBSTITUTE(SUBSTITUTE('Benchmark.BenchmarkDotNet.Dynam'!AS61, ",", ""), " us", "")</f>
-        <v>1213.2</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -44799,7 +44788,7 @@
       </c>
       <c r="D2">
         <f>Result!D2</f>
-        <v>9346.1</v>
+        <v>9163.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -44817,7 +44806,7 @@
       </c>
       <c r="D3">
         <f>Result!D4</f>
-        <v>1824.8</v>
+        <v>1786.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -44835,7 +44824,7 @@
       </c>
       <c r="D4">
         <f>Result!D6</f>
-        <v>1058.8</v>
+        <v>1105.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -44853,7 +44842,7 @@
       </c>
       <c r="D5">
         <f>Result!D8</f>
-        <v>954.4</v>
+        <v>1026.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -44871,7 +44860,7 @@
       </c>
       <c r="D6">
         <f>Result!D10</f>
-        <v>1627.1</v>
+        <v>1613.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -44889,7 +44878,7 @@
       </c>
       <c r="D7">
         <f>Result!D12</f>
-        <v>1233.0999999999999</v>
+        <v>1237.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -44907,7 +44896,7 @@
       </c>
       <c r="D8">
         <f>Result!D14</f>
-        <v>35367.1</v>
+        <v>37111.199999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -44925,7 +44914,7 @@
       </c>
       <c r="D9">
         <f>Result!D16</f>
-        <v>9288.6</v>
+        <v>9618.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -44943,7 +44932,7 @@
       </c>
       <c r="D10">
         <f>Result!D18</f>
-        <v>10755.5</v>
+        <v>11052.8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -44961,7 +44950,7 @@
       </c>
       <c r="D11">
         <f>Result!D20</f>
-        <v>3042.3</v>
+        <v>3138.4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -44979,7 +44968,7 @@
       </c>
       <c r="D12">
         <f>Result!D22</f>
-        <v>8459.2999999999993</v>
+        <v>8837.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -44997,7 +44986,7 @@
       </c>
       <c r="D13">
         <f>Result!D24</f>
-        <v>6179.8</v>
+        <v>6447.4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -45015,7 +45004,7 @@
       </c>
       <c r="D14">
         <f>Result!D26</f>
-        <v>24261.200000000001</v>
+        <v>25434.2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -45033,7 +45022,7 @@
       </c>
       <c r="D15">
         <f>Result!D28</f>
-        <v>4923.2</v>
+        <v>5290.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -45051,7 +45040,7 @@
       </c>
       <c r="D16">
         <f>Result!D30</f>
-        <v>3265.7</v>
+        <v>3382.3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -45069,7 +45058,7 @@
       </c>
       <c r="D17">
         <f>Result!D32</f>
-        <v>1628.7</v>
+        <v>1679.4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -45087,7 +45076,7 @@
       </c>
       <c r="D18">
         <f>Result!D34</f>
-        <v>3737.1</v>
+        <v>3948.6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -45105,7 +45094,7 @@
       </c>
       <c r="D19">
         <f>Result!D36</f>
-        <v>2324.3000000000002</v>
+        <v>2335.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -45123,7 +45112,7 @@
       </c>
       <c r="D20">
         <f>Result!D38</f>
-        <v>30461.9</v>
+        <v>31576.400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -45141,7 +45130,7 @@
       </c>
       <c r="D21">
         <f>Result!D40</f>
-        <v>12281.7</v>
+        <v>12579.2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -45159,7 +45148,7 @@
       </c>
       <c r="D22">
         <f>Result!D42</f>
-        <v>8200.4</v>
+        <v>8379.6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -45177,7 +45166,7 @@
       </c>
       <c r="D23">
         <f>Result!D44</f>
-        <v>2322.9</v>
+        <v>2281.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -45195,7 +45184,7 @@
       </c>
       <c r="D24">
         <f>Result!D46</f>
-        <v>8321.1</v>
+        <v>8349.6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -45213,7 +45202,7 @@
       </c>
       <c r="D25">
         <f>Result!D48</f>
-        <v>3725.9</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -45231,7 +45220,7 @@
       </c>
       <c r="D26">
         <f>Result!D50</f>
-        <v>14577.4</v>
+        <v>15085.8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -45249,7 +45238,7 @@
       </c>
       <c r="D27">
         <f>Result!D52</f>
-        <v>5082.1000000000004</v>
+        <v>5152.3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -45267,7 +45256,7 @@
       </c>
       <c r="D28">
         <f>Result!D54</f>
-        <v>3921.1</v>
+        <v>4015.4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -45285,7 +45274,7 @@
       </c>
       <c r="D29">
         <f>Result!D56</f>
-        <v>1447.7</v>
+        <v>1466.6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -45303,7 +45292,7 @@
       </c>
       <c r="D30">
         <f>Result!D58</f>
-        <v>3847.1</v>
+        <v>3971.7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -45321,7 +45310,7 @@
       </c>
       <c r="D31">
         <f>Result!D60</f>
-        <v>1983.4</v>
+        <v>2046.8</v>
       </c>
     </row>
   </sheetData>
@@ -45363,7 +45352,7 @@
       </c>
       <c r="C2">
         <f>Result!D2</f>
-        <v>9346.1</v>
+        <v>9163.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -45377,7 +45366,7 @@
       </c>
       <c r="C3">
         <f>Result!D3</f>
-        <v>3534.8</v>
+        <v>4018.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -45391,7 +45380,7 @@
       </c>
       <c r="C4">
         <f>Result!D14</f>
-        <v>35367.1</v>
+        <v>37111.199999999997</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -45405,7 +45394,7 @@
       </c>
       <c r="C5">
         <f>Result!D15</f>
-        <v>12112.1</v>
+        <v>13255.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -45419,7 +45408,7 @@
       </c>
       <c r="C6">
         <f>Result!D26</f>
-        <v>24261.200000000001</v>
+        <v>25434.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -45433,7 +45422,7 @@
       </c>
       <c r="C7">
         <f>Result!D27</f>
-        <v>13704.4</v>
+        <v>14136.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -45447,7 +45436,7 @@
       </c>
       <c r="C8">
         <f>Result!D38</f>
-        <v>30461.9</v>
+        <v>31576.400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -45461,7 +45450,7 @@
       </c>
       <c r="C9">
         <f>Result!D39</f>
-        <v>5294</v>
+        <v>6244.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -45475,7 +45464,7 @@
       </c>
       <c r="C10">
         <f>Result!D50</f>
-        <v>14577.4</v>
+        <v>15085.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -45489,7 +45478,7 @@
       </c>
       <c r="C11">
         <f>Result!D51</f>
-        <v>8132.3</v>
+        <v>8436.2999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -45541,7 +45530,7 @@
       </c>
       <c r="D2">
         <f>Result!D5</f>
-        <v>2236.9</v>
+        <v>2452.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -45559,7 +45548,7 @@
       </c>
       <c r="D3">
         <f>Result!D7</f>
-        <v>1821.6</v>
+        <v>2048.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -45577,7 +45566,7 @@
       </c>
       <c r="D4">
         <f>Result!D9</f>
-        <v>669.1</v>
+        <v>740.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -45595,7 +45584,7 @@
       </c>
       <c r="D5">
         <f>Result!D11</f>
-        <v>1342.2</v>
+        <v>1478.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -45613,7 +45602,7 @@
       </c>
       <c r="D6">
         <f>Result!D13</f>
-        <v>668.2</v>
+        <v>733.7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -45631,7 +45620,7 @@
       </c>
       <c r="D7">
         <f>Result!D17</f>
-        <v>5184.7</v>
+        <v>5455.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -45649,7 +45638,7 @@
       </c>
       <c r="D8">
         <f>Result!D19</f>
-        <v>5947.3</v>
+        <v>6433.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -45667,7 +45656,7 @@
       </c>
       <c r="D9">
         <f>Result!D21</f>
-        <v>2106.1999999999998</v>
+        <v>2207.8000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -45685,7 +45674,7 @@
       </c>
       <c r="D10">
         <f>Result!D23</f>
-        <v>4901.5</v>
+        <v>5091.7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -45703,7 +45692,7 @@
       </c>
       <c r="D11">
         <f>Result!D25</f>
-        <v>2699.1</v>
+        <v>2833.4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -45721,7 +45710,7 @@
       </c>
       <c r="D12">
         <f>Result!D29</f>
-        <v>10696.2</v>
+        <v>11411.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -45739,7 +45728,7 @@
       </c>
       <c r="D13">
         <f>Result!D31</f>
-        <v>10176.799999999999</v>
+        <v>10724.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -45757,7 +45746,7 @@
       </c>
       <c r="D14">
         <f>Result!D33</f>
-        <v>2819.8</v>
+        <v>2901.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -45775,7 +45764,7 @@
       </c>
       <c r="D15">
         <f>Result!D35</f>
-        <v>6244.7</v>
+        <v>6447.9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -45793,7 +45782,7 @@
       </c>
       <c r="D16">
         <f>Result!D37</f>
-        <v>2985.2</v>
+        <v>3035.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -45811,7 +45800,7 @@
       </c>
       <c r="D17">
         <f>Result!D41</f>
-        <v>5025.3999999999996</v>
+        <v>5279.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -45829,7 +45818,7 @@
       </c>
       <c r="D18">
         <f>Result!D43</f>
-        <v>4852.6000000000004</v>
+        <v>5035.8999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -45847,7 +45836,7 @@
       </c>
       <c r="D19">
         <f>Result!D45</f>
-        <v>871</v>
+        <v>902.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -45865,7 +45854,7 @@
       </c>
       <c r="D20">
         <f>Result!D47</f>
-        <v>1999.1</v>
+        <v>2100.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -45883,7 +45872,7 @@
       </c>
       <c r="D21">
         <f>Result!D49</f>
-        <v>1102.0999999999999</v>
+        <v>1155.3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -45901,7 +45890,7 @@
       </c>
       <c r="D22">
         <f>Result!D53</f>
-        <v>4388.8</v>
+        <v>4503.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -45919,7 +45908,7 @@
       </c>
       <c r="D23">
         <f>Result!D55</f>
-        <v>4120.5</v>
+        <v>4120.8999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -45937,7 +45926,7 @@
       </c>
       <c r="D24">
         <f>Result!D57</f>
-        <v>843.4</v>
+        <v>876.4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -45955,7 +45944,7 @@
       </c>
       <c r="D25">
         <f>Result!D59</f>
-        <v>2909.4</v>
+        <v>2986.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -45973,7 +45962,7 @@
       </c>
       <c r="D26">
         <f>Result!D61</f>
-        <v>1213.2</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -45988,7 +45977,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -46038,22 +46027,22 @@
         <v>58</v>
       </c>
       <c r="B5" s="4">
-        <v>1824.8</v>
+        <v>1786.2</v>
       </c>
       <c r="C5" s="4">
-        <v>5082.1000000000004</v>
+        <v>5152.3</v>
       </c>
       <c r="D5" s="4">
-        <v>9288.6</v>
+        <v>9618.1</v>
       </c>
       <c r="E5" s="4">
-        <v>4923.2</v>
+        <v>5290.1</v>
       </c>
       <c r="F5" s="4">
-        <v>12281.7</v>
+        <v>12579.2</v>
       </c>
       <c r="G5" s="4">
-        <v>33400.400000000001</v>
+        <v>34425.899999999994</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -46061,22 +46050,22 @@
         <v>59</v>
       </c>
       <c r="B6" s="4">
-        <v>1058.8</v>
+        <v>1105.2</v>
       </c>
       <c r="C6" s="4">
-        <v>3921.1</v>
+        <v>4015.4</v>
       </c>
       <c r="D6" s="4">
-        <v>10755.5</v>
+        <v>11052.8</v>
       </c>
       <c r="E6" s="4">
-        <v>3265.7</v>
+        <v>3382.3</v>
       </c>
       <c r="F6" s="4">
-        <v>8200.4</v>
+        <v>8379.6</v>
       </c>
       <c r="G6" s="4">
-        <v>27201.5</v>
+        <v>27935.300000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -46084,22 +46073,22 @@
         <v>61</v>
       </c>
       <c r="B7" s="4">
-        <v>1627.1</v>
+        <v>1613.2</v>
       </c>
       <c r="C7" s="4">
-        <v>3847.1</v>
+        <v>3971.7</v>
       </c>
       <c r="D7" s="4">
-        <v>8459.2999999999993</v>
+        <v>8837.1</v>
       </c>
       <c r="E7" s="4">
-        <v>3737.1</v>
+        <v>3948.6</v>
       </c>
       <c r="F7" s="4">
-        <v>8321.1</v>
+        <v>8349.6</v>
       </c>
       <c r="G7" s="4">
-        <v>25991.699999999997</v>
+        <v>26720.199999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -46107,22 +46096,22 @@
         <v>62</v>
       </c>
       <c r="B8" s="4">
-        <v>1233.0999999999999</v>
+        <v>1237.5</v>
       </c>
       <c r="C8" s="4">
-        <v>1983.4</v>
+        <v>2046.8</v>
       </c>
       <c r="D8" s="4">
-        <v>6179.8</v>
+        <v>6447.4</v>
       </c>
       <c r="E8" s="4">
-        <v>2324.3000000000002</v>
+        <v>2335.5</v>
       </c>
       <c r="F8" s="4">
-        <v>3725.9</v>
+        <v>3724</v>
       </c>
       <c r="G8" s="4">
-        <v>15446.499999999998</v>
+        <v>15791.2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -46130,22 +46119,22 @@
         <v>60</v>
       </c>
       <c r="B9" s="4">
-        <v>954.4</v>
+        <v>1026.8</v>
       </c>
       <c r="C9" s="4">
-        <v>1447.7</v>
+        <v>1466.6</v>
       </c>
       <c r="D9" s="4">
-        <v>3042.3</v>
+        <v>3138.4</v>
       </c>
       <c r="E9" s="4">
-        <v>1628.7</v>
+        <v>1679.4</v>
       </c>
       <c r="F9" s="4">
-        <v>2322.9</v>
+        <v>2281.5</v>
       </c>
       <c r="G9" s="4">
-        <v>9396</v>
+        <v>9592.6999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -46153,22 +46142,22 @@
         <v>71</v>
       </c>
       <c r="B10" s="4">
-        <v>6698.1999999999989</v>
+        <v>6768.9000000000005</v>
       </c>
       <c r="C10" s="4">
-        <v>16281.400000000001</v>
+        <v>16652.8</v>
       </c>
       <c r="D10" s="4">
-        <v>37725.5</v>
+        <v>39093.800000000003</v>
       </c>
       <c r="E10" s="4">
-        <v>15879</v>
+        <v>16635.900000000001</v>
       </c>
       <c r="F10" s="4">
-        <v>34852</v>
+        <v>35313.9</v>
       </c>
       <c r="G10" s="4">
-        <v>111436.1</v>
+        <v>114465.29999999999</v>
       </c>
     </row>
   </sheetData>
@@ -46192,7 +46181,8 @@
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.875" bestFit="1" customWidth="1"/>
@@ -46255,22 +46245,22 @@
         <v>58</v>
       </c>
       <c r="B5" s="4">
-        <v>2236.9</v>
+        <v>2452.6</v>
       </c>
       <c r="C5" s="4">
-        <v>4388.8</v>
+        <v>4503.5</v>
       </c>
       <c r="D5" s="4">
-        <v>5184.7</v>
+        <v>5455.8</v>
       </c>
       <c r="E5" s="4">
-        <v>10696.2</v>
+        <v>11411.6</v>
       </c>
       <c r="F5" s="4">
-        <v>5025.3999999999996</v>
+        <v>5279.8</v>
       </c>
       <c r="G5" s="4">
-        <v>27532</v>
+        <v>29103.3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -46278,22 +46268,22 @@
         <v>59</v>
       </c>
       <c r="B6" s="4">
-        <v>1821.6</v>
+        <v>2048.4</v>
       </c>
       <c r="C6" s="4">
-        <v>4120.5</v>
+        <v>4120.8999999999996</v>
       </c>
       <c r="D6" s="4">
-        <v>5947.3</v>
+        <v>6433.2</v>
       </c>
       <c r="E6" s="4">
-        <v>10176.799999999999</v>
+        <v>10724.1</v>
       </c>
       <c r="F6" s="4">
-        <v>4852.6000000000004</v>
+        <v>5035.8999999999996</v>
       </c>
       <c r="G6" s="4">
-        <v>26918.800000000003</v>
+        <v>28362.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -46301,22 +46291,22 @@
         <v>61</v>
       </c>
       <c r="B7" s="4">
-        <v>1342.2</v>
+        <v>1478.3</v>
       </c>
       <c r="C7" s="4">
-        <v>2909.4</v>
+        <v>2986.5</v>
       </c>
       <c r="D7" s="4">
-        <v>4901.5</v>
+        <v>5091.7</v>
       </c>
       <c r="E7" s="4">
-        <v>6244.7</v>
+        <v>6447.9</v>
       </c>
       <c r="F7" s="4">
-        <v>1999.1</v>
+        <v>2100.5</v>
       </c>
       <c r="G7" s="4">
-        <v>17396.899999999998</v>
+        <v>18104.900000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -46324,22 +46314,22 @@
         <v>62</v>
       </c>
       <c r="B8" s="4">
-        <v>668.2</v>
+        <v>733.7</v>
       </c>
       <c r="C8" s="4">
-        <v>1213.2</v>
+        <v>1252</v>
       </c>
       <c r="D8" s="4">
-        <v>2699.1</v>
+        <v>2833.4</v>
       </c>
       <c r="E8" s="4">
-        <v>2985.2</v>
+        <v>3035.5</v>
       </c>
       <c r="F8" s="4">
-        <v>1102.0999999999999</v>
+        <v>1155.3</v>
       </c>
       <c r="G8" s="4">
-        <v>8667.7999999999993</v>
+        <v>9009.9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -46347,22 +46337,22 @@
         <v>60</v>
       </c>
       <c r="B9" s="4">
-        <v>669.1</v>
+        <v>740.6</v>
       </c>
       <c r="C9" s="4">
-        <v>843.4</v>
+        <v>876.4</v>
       </c>
       <c r="D9" s="4">
-        <v>2106.1999999999998</v>
+        <v>2207.8000000000002</v>
       </c>
       <c r="E9" s="4">
-        <v>2819.8</v>
+        <v>2901.8</v>
       </c>
       <c r="F9" s="4">
-        <v>871</v>
+        <v>902.9</v>
       </c>
       <c r="G9" s="4">
-        <v>7309.5</v>
+        <v>7629.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -46370,22 +46360,22 @@
         <v>71</v>
       </c>
       <c r="B10" s="4">
-        <v>6738</v>
+        <v>7453.6</v>
       </c>
       <c r="C10" s="4">
-        <v>13475.3</v>
+        <v>13739.3</v>
       </c>
       <c r="D10" s="4">
-        <v>20838.8</v>
+        <v>22021.9</v>
       </c>
       <c r="E10" s="4">
-        <v>32922.700000000004</v>
+        <v>34520.9</v>
       </c>
       <c r="F10" s="4">
-        <v>13850.2</v>
+        <v>14474.4</v>
       </c>
       <c r="G10" s="4">
-        <v>87825</v>
+        <v>92210.1</v>
       </c>
     </row>
   </sheetData>
@@ -46399,8 +46389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE68875-F3A7-41A3-A436-CE000CE0656E}">
   <dimension ref="A3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -46411,7 +46401,7 @@
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -46450,22 +46440,22 @@
         <v>49</v>
       </c>
       <c r="B5" s="4">
-        <v>9346.1</v>
+        <v>9163.1</v>
       </c>
       <c r="C5" s="4">
-        <v>14577.4</v>
+        <v>15085.8</v>
       </c>
       <c r="D5" s="4">
-        <v>24261.200000000001</v>
+        <v>25434.2</v>
       </c>
       <c r="E5" s="4">
-        <v>30461.9</v>
+        <v>31576.400000000001</v>
       </c>
       <c r="F5" s="4">
-        <v>35367.1</v>
+        <v>37111.199999999997</v>
       </c>
       <c r="G5" s="4">
-        <v>114013.70000000001</v>
+        <v>118370.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -46473,22 +46463,22 @@
         <v>57</v>
       </c>
       <c r="B6" s="4">
-        <v>3534.8</v>
+        <v>4018.1</v>
       </c>
       <c r="C6" s="4">
-        <v>8132.3</v>
+        <v>8436.2999999999993</v>
       </c>
       <c r="D6" s="4">
-        <v>13704.4</v>
+        <v>14136.3</v>
       </c>
       <c r="E6" s="4">
-        <v>5294</v>
+        <v>6244.3</v>
       </c>
       <c r="F6" s="4">
-        <v>12112.1</v>
+        <v>13255.3</v>
       </c>
       <c r="G6" s="4">
-        <v>42777.599999999999</v>
+        <v>46090.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -46496,22 +46486,22 @@
         <v>71</v>
       </c>
       <c r="B7" s="4">
-        <v>12880.900000000001</v>
+        <v>13181.2</v>
       </c>
       <c r="C7" s="4">
-        <v>22709.7</v>
+        <v>23522.1</v>
       </c>
       <c r="D7" s="4">
-        <v>37965.599999999999</v>
+        <v>39570.5</v>
       </c>
       <c r="E7" s="4">
-        <v>35755.9</v>
+        <v>37820.700000000004</v>
       </c>
       <c r="F7" s="4">
-        <v>47479.199999999997</v>
+        <v>50366.5</v>
       </c>
       <c r="G7" s="4">
-        <v>156791.30000000002</v>
+        <v>164461</v>
       </c>
     </row>
   </sheetData>
